--- a/TJX.xlsx
+++ b/TJX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060E8925-9110-4126-B892-140AEFC8D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F56613-0CDA-45AE-BF37-AC3770A3A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="2" xr2:uid="{03FABE92-8095-40C1-84A9-F723AD2E6BD9}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{03FABE92-8095-40C1-84A9-F723AD2E6BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/TJX.xlsx
+++ b/TJX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B3EFB-ABB9-4457-93D4-70771C7D65F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F2507A-6367-4465-810B-2F69E4E239A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{03FABE92-8095-40C1-84A9-F723AD2E6BD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{03FABE92-8095-40C1-84A9-F723AD2E6BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="247">
   <si>
     <t>TJX Companies</t>
   </si>
@@ -530,18 +530,6 @@
   </si>
   <si>
     <t>Australia</t>
-  </si>
-  <si>
-    <t>MarMaxx % of Revenue</t>
-  </si>
-  <si>
-    <t>HomeGoods % of Revenue</t>
-  </si>
-  <si>
-    <t>TJX Canada % of Revenue</t>
-  </si>
-  <si>
-    <t>TJX International % of Revenue</t>
   </si>
   <si>
     <t>MarMaxx Store Growth</t>
@@ -864,13 +852,19 @@
     <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="171" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1137,86 +1131,89 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1248,7 +1245,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1610,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7DDD2F-A8C9-4FF1-AACF-D244E2D69EDE}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1641,21 +1638,21 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>139.75</v>
+        <v>152.19999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="3">
-        <v>1128</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>247</v>
+        <v>1126</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1667,7 +1664,7 @@
       </c>
       <c r="I5" s="6">
         <f>I4*I3</f>
-        <v>157638</v>
+        <v>171377.19999999998</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1676,10 +1673,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="6">
-        <v>4639</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>247</v>
+        <v>4640</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1690,10 +1687,11 @@
         <v>5</v>
       </c>
       <c r="I7" s="6">
-        <v>2867</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>247</v>
+        <f>1870+999</f>
+        <v>2869</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1714,7 +1712,7 @@
       </c>
       <c r="I8" s="6">
         <f>I5-I6+I7</f>
-        <v>155866</v>
+        <v>169606.19999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1779,10 +1777,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -1843,12 +1841,12 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1862,13 +1860,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D40287-100B-47AB-AD27-D58D0E825FBE}">
-  <dimension ref="A1:AO376"/>
+  <dimension ref="A1:AO372"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,16 +1908,16 @@
         <v>107</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>14</v>
@@ -1943,31 +1941,31 @@
         <v>103</v>
       </c>
       <c r="W2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="AE2" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
@@ -2039,7 +2037,10 @@
         <f>1340+1234</f>
         <v>2574</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <f>1346+1248</f>
+        <v>2594</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3">
@@ -2144,7 +2145,10 @@
         <f>952+127+76</f>
         <v>1155</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <f>958+141+77</f>
+        <v>1176</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3">
@@ -2249,7 +2253,10 @@
         <f>311+161+110</f>
         <v>582</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <f>315+162+111</f>
+        <v>588</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3">
@@ -2354,7 +2361,10 @@
         <f>664+74+85</f>
         <v>823</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <f>672+74+87</f>
+        <v>833</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3">
@@ -2422,14 +2432,14 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C8" s="25">
         <f>+SUM(C4:C7)</f>
         <v>4865</v>
       </c>
       <c r="D8" s="25">
-        <f t="shared" ref="D8:L8" si="7">+SUM(D4:D7)</f>
+        <f t="shared" ref="D8:M8" si="7">+SUM(D4:D7)</f>
         <v>4884</v>
       </c>
       <c r="E8" s="25">
@@ -2464,7 +2474,10 @@
         <f t="shared" si="7"/>
         <v>5134</v>
       </c>
-      <c r="M8" s="25"/>
+      <c r="M8" s="25">
+        <f t="shared" si="7"/>
+        <v>5191</v>
+      </c>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25">
@@ -2589,31 +2602,34 @@
         <f t="shared" si="27"/>
         <v>3.4347319347319347</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="24">
+        <f t="shared" ref="M9" si="28">M15/M4</f>
+        <v>3.4838087895142635</v>
+      </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24">
-        <f t="shared" ref="P9:U12" si="28">P15/P4</f>
+        <f t="shared" ref="P9:U12" si="29">P15/P4</f>
         <v>10.268032437046521</v>
       </c>
       <c r="Q9" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10.680399500624219</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.0611990008326391</v>
       </c>
       <c r="S9" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12.122944078947368</v>
       </c>
       <c r="T9" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12.306607574536663</v>
       </c>
       <c r="U9" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13.2802066772655</v>
       </c>
       <c r="V9" s="24">
@@ -2621,39 +2637,39 @@
         <v>13.944217011128776</v>
       </c>
       <c r="W9" s="24">
-        <f t="shared" ref="W9:AE9" si="29">V9*1.05</f>
+        <f t="shared" ref="W9:AE9" si="30">V9*1.05</f>
         <v>14.641427861685216</v>
       </c>
       <c r="X9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15.373499254769477</v>
       </c>
       <c r="Y9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.14217421750795</v>
       </c>
       <c r="Z9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.949282928383347</v>
       </c>
       <c r="AA9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.796747074802514</v>
       </c>
       <c r="AB9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.686584428542641</v>
       </c>
       <c r="AC9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19.620913649969776</v>
       </c>
       <c r="AD9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20.601959332468265</v>
       </c>
       <c r="AE9" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>21.632057299091681</v>
       </c>
       <c r="AF9" s="24">
@@ -2666,70 +2682,73 @@
         <v>135</v>
       </c>
       <c r="C10" s="24">
-        <f t="shared" ref="C10:G10" si="30">C16/C5</f>
+        <f t="shared" ref="C10:G10" si="31">C16/C5</f>
         <v>2.0694736842105264</v>
       </c>
       <c r="D10" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.1035564853556483</v>
       </c>
       <c r="E10" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.28099173553719</v>
       </c>
       <c r="F10" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.8798767967145791</v>
       </c>
       <c r="G10" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>2.1192660550458715</v>
       </c>
       <c r="H10" s="24">
-        <f t="shared" ref="H10:J10" si="31">H16/H5</f>
+        <f t="shared" ref="H10:J10" si="32">H16/H5</f>
         <v>2.117943548387097</v>
       </c>
       <c r="I10" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.3363095238095237</v>
       </c>
       <c r="J10" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.4662629757785468</v>
       </c>
       <c r="K10" s="24">
-        <f t="shared" ref="K10:L10" si="32">K16/K5</f>
+        <f t="shared" ref="K10:L10" si="33">K16/K5</f>
         <v>1.9634146341463414</v>
       </c>
       <c r="L10" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.9792207792207792</v>
       </c>
-      <c r="M10" s="24"/>
+      <c r="M10" s="24">
+        <f t="shared" ref="M10" si="34">M16/M5</f>
+        <v>2.1590136054421767</v>
+      </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.5652287581699342</v>
       </c>
       <c r="Q10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.5576694411414982</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.1298245614035087</v>
       </c>
       <c r="S10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10.118110236220472</v>
       </c>
       <c r="T10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.7914893617021281</v>
       </c>
       <c r="U10" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.2299794661190973</v>
       </c>
       <c r="V10" s="24">
@@ -2737,43 +2756,43 @@
         <v>9.4145790554414788</v>
       </c>
       <c r="W10" s="24">
-        <f t="shared" ref="W10:AE10" si="33">V10*1.02</f>
+        <f t="shared" ref="W10:AE10" si="35">V10*1.02</f>
         <v>9.6028706365503087</v>
       </c>
       <c r="X10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.7949280492813156</v>
       </c>
       <c r="Y10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9908266102669412</v>
       </c>
       <c r="Z10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10.190643142472281</v>
       </c>
       <c r="AA10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10.394456005321727</v>
       </c>
       <c r="AB10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10.602345125428162</v>
       </c>
       <c r="AC10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10.814392027936725</v>
       </c>
       <c r="AD10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11.03067986849546</v>
       </c>
       <c r="AE10" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11.25129346586537</v>
       </c>
       <c r="AF10" s="24">
-        <f t="shared" ref="AF10:AF12" si="34">AE10</f>
+        <f t="shared" ref="AF10:AF12" si="36">AE10</f>
         <v>11.25129346586537</v>
       </c>
     </row>
@@ -2782,70 +2801,73 @@
         <v>136</v>
       </c>
       <c r="C11" s="24">
-        <f t="shared" ref="C11:G11" si="35">C17/C6</f>
+        <f t="shared" ref="C11:G11" si="37">C17/C6</f>
         <v>1.8669064748201438</v>
       </c>
       <c r="D11" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.1878354203935597</v>
       </c>
       <c r="E11" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.3309734513274338</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.5936395759717317</v>
       </c>
       <c r="G11" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.962962962962963</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" ref="H11:J11" si="36">H17/H6</f>
+        <f t="shared" ref="H11:J11" si="38">H17/H6</f>
         <v>2.174825174825175</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.3993055555555554</v>
       </c>
       <c r="J11" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.5539215686274508</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" ref="K11:L11" si="37">K17/K6</f>
+        <f t="shared" ref="K11:L11" si="39">K17/K6</f>
         <v>1.9690189328743546</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.372852233676976</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="24">
+        <f t="shared" ref="M11" si="40">M17/M6</f>
+        <v>2.5374149659863945</v>
+      </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.995454545454546</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.8576998050682265</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.4019047619047615</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.9542124542124544</v>
       </c>
       <c r="T11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.8664259927797833</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.915194346289752</v>
       </c>
       <c r="V11" s="24">
@@ -2853,43 +2875,43 @@
         <v>9.0043462897526503</v>
       </c>
       <c r="W11" s="24">
-        <f t="shared" ref="W11:AE11" si="38">V11*1.01</f>
+        <f t="shared" ref="W11:AE11" si="41">V11*1.01</f>
         <v>9.0943897526501765</v>
       </c>
       <c r="X11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.1853336501766787</v>
       </c>
       <c r="Y11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.277186986678446</v>
       </c>
       <c r="Z11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.3699588565452299</v>
       </c>
       <c r="AA11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.4636584451106831</v>
       </c>
       <c r="AB11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.5582950295617906</v>
       </c>
       <c r="AC11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.653877979857409</v>
       </c>
       <c r="AD11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.7504167596559839</v>
       </c>
       <c r="AE11" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>9.8479209272525434</v>
       </c>
       <c r="AF11" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.8479209272525434</v>
       </c>
     </row>
@@ -2898,70 +2920,73 @@
         <v>137</v>
       </c>
       <c r="C12" s="24">
-        <f t="shared" ref="C12:G12" si="39">C18/C7</f>
+        <f t="shared" ref="C12:G12" si="42">C18/C7</f>
         <v>1.9579617834394905</v>
       </c>
       <c r="D12" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.0493046776232617</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.0463659147869673</v>
       </c>
       <c r="F12" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.4620174346201744</v>
       </c>
       <c r="G12" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.9116915422885572</v>
       </c>
       <c r="H12" s="24">
-        <f t="shared" ref="H12:J12" si="40">H18/H7</f>
+        <f t="shared" ref="H12:J12" si="43">H18/H7</f>
         <v>2.0818858560794045</v>
       </c>
       <c r="I12" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2.3194103194103195</v>
       </c>
       <c r="J12" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2.8741355463347165</v>
       </c>
       <c r="K12" s="24">
-        <f t="shared" ref="K12:L12" si="41">K18/K7</f>
+        <f t="shared" ref="K12:L12" si="44">K18/K7</f>
         <v>2.0256097560975608</v>
       </c>
       <c r="L12" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.3001215066828675</v>
       </c>
-      <c r="M12" s="24"/>
+      <c r="M12" s="24">
+        <f t="shared" ref="M12" si="45">M18/M7</f>
+        <v>2.4597839135654262</v>
+      </c>
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.7434462444771723</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.8030303030303028</v>
       </c>
       <c r="R12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.177897574123989</v>
       </c>
       <c r="S12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.5085190039318483</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.957746478873239</v>
       </c>
       <c r="U12" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.4283935242839352</v>
       </c>
       <c r="V12" s="24">
@@ -2969,43 +2994,43 @@
         <v>8.5969613947696146</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" ref="W12:AE12" si="42">V12*1.02</f>
+        <f t="shared" ref="W12:AE12" si="46">V12*1.02</f>
         <v>8.7689006226650079</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.9442786351183088</v>
       </c>
       <c r="Y12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.1231642078206754</v>
       </c>
       <c r="Z12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.3056274919770896</v>
       </c>
       <c r="AA12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.491740041816632</v>
       </c>
       <c r="AB12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.6815748426529655</v>
       </c>
       <c r="AC12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.8752063395060254</v>
       </c>
       <c r="AD12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>10.072710466296146</v>
       </c>
       <c r="AE12" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>10.274164675622069</v>
       </c>
       <c r="AF12" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10.274164675622069</v>
       </c>
     </row>
@@ -3079,7 +3104,7 @@
         <v>8107</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ref="F15:F20" si="43">U15-SUM(C15:E15)</f>
+        <f t="shared" ref="F15:F20" si="47">U15-SUM(C15:E15)</f>
         <v>10037</v>
       </c>
       <c r="G15" s="3">
@@ -3100,7 +3125,9 @@
       <c r="L15" s="3">
         <v>8841</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>9037</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -3125,31 +3152,31 @@
         <v>34604</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" ref="W15:AC15" si="44">W4*W9</f>
+        <f t="shared" ref="W15:AC15" si="48">W4*W9</f>
         <v>40189.987408932837</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>43465.471382760865</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>47007.907300455874</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>50839.05174544303</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>54905.0320064142</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>57650.283606734913</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>60532.797787071664</v>
       </c>
       <c r="AD15" s="3">
@@ -3176,7 +3203,7 @@
         <v>2208</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2805</v>
       </c>
       <c r="G16" s="3">
@@ -3197,7 +3224,9 @@
       <c r="L16" s="3">
         <v>2286</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>2539</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -3222,39 +3251,39 @@
         <v>9386</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ref="W16:AD16" si="45">W5*W10</f>
+        <f t="shared" ref="W16:AD16" si="49">W5*W10</f>
         <v>11711.468970924025</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>12602.711759611344</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>13561.778124517765</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>14593.829439793568</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>15704.419860161859</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>16899.526211520177</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>18185.58015621686</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>18614.214280498894</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" ref="AE16" si="46">AE5*AE10</f>
+        <f t="shared" ref="AE16" si="50">AE5*AE10</f>
         <v>18986.498566108872</v>
       </c>
     </row>
@@ -3273,7 +3302,7 @@
         <v>1317</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1468</v>
       </c>
       <c r="G17" s="3">
@@ -3294,7 +3323,9 @@
       <c r="L17" s="3">
         <v>1381</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>1492</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -3319,39 +3350,39 @@
         <v>5189</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" ref="W17:AD17" si="47">W6*W11</f>
+        <f t="shared" ref="W17:AD17" si="51">W6*W11</f>
         <v>3784.7212394628978</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3899.0198208946772</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4016.7702194856965</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4138.0766801141644</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4263.0465958536133</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4390.9294676360305</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4434.8387623123908</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4479.1871499355148</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" ref="AE17" si="48">AE6*AE11</f>
+        <f t="shared" ref="AE17" si="52">AE6*AE11</f>
         <v>4523.9790214348695</v>
       </c>
     </row>
@@ -3369,7 +3400,7 @@
         <v>1633</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1977</v>
       </c>
       <c r="G18" s="3">
@@ -3390,7 +3421,9 @@
       <c r="L18" s="3">
         <v>1893</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>2049</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -3415,39 +3448,39 @@
         <v>7181</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" ref="W18:AD18" si="49">W7*W12</f>
+        <f t="shared" ref="W18:AD18" si="53">W7*W12</f>
         <v>6656.9109076961404</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>7129.551582142567</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>7635.7497444746896</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>8177.8879763323939</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>8758.5180226519951</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9339.2778356980052</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9526.0633924119647</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9716.5846602602032</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" ref="AE18" si="50">AE7*AE12</f>
+        <f t="shared" ref="AE18" si="54">AE7*AE12</f>
         <v>9910.916353465409</v>
       </c>
     </row>
@@ -3465,7 +3498,7 @@
         <v>13265</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>16411</v>
       </c>
       <c r="G19" s="25">
@@ -3488,66 +3521,68 @@
       <c r="L19" s="25">
         <v>14401</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="25">
+        <v>15117</v>
+      </c>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25">
         <v>38972.934000000001</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" ref="Q19:W19" si="51">SUM(Q15:Q18)</f>
+        <f t="shared" ref="Q19:W19" si="55">SUM(Q15:Q18)</f>
         <v>41717</v>
       </c>
       <c r="R19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>32137</v>
       </c>
       <c r="S19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>48550</v>
       </c>
       <c r="T19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>49936</v>
       </c>
       <c r="U19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>54217</v>
       </c>
       <c r="V19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>56360</v>
       </c>
       <c r="W19" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>62343.088527015898</v>
       </c>
       <c r="X19" s="25">
-        <f t="shared" ref="X19:AD19" si="52">SUM(X15:X18)</f>
+        <f t="shared" ref="X19:AD19" si="56">SUM(X15:X18)</f>
         <v>67096.754545409451</v>
       </c>
       <c r="Y19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>72222.205388934017</v>
       </c>
       <c r="Z19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>77748.845841683156</v>
       </c>
       <c r="AA19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>83631.016485081665</v>
       </c>
       <c r="AB19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>88280.017121589131</v>
       </c>
       <c r="AC19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>92679.280098012867</v>
       </c>
       <c r="AD19" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>96369.423767119879</v>
       </c>
       <c r="AE19" s="25">
@@ -3569,7 +3604,7 @@
         <v>9139</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>11528</v>
       </c>
       <c r="G20" s="3">
@@ -3590,7 +3625,9 @@
       <c r="L20" s="3">
         <v>9976</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>10190</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3">
@@ -3629,19 +3666,19 @@
         <v>22</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:F21" si="53">C19-C20</f>
+        <f t="shared" ref="C21:F21" si="57">C19-C20</f>
         <v>3409</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3848</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>4126</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>4883</v>
       </c>
       <c r="G21" s="3">
@@ -3649,46 +3686,49 @@
         <v>3740</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ref="H21:L21" si="54">H19-H20</f>
+        <f t="shared" ref="H21:M21" si="58">H19-H20</f>
         <v>4088</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4441</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4979</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>3865</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4425</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <f t="shared" si="58"/>
+        <v>4927</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
-        <f t="shared" ref="P21:T21" si="55">P19-P20</f>
+        <f t="shared" ref="P21:T21" si="59">P19-P20</f>
         <v>11141.757000000001</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>11871.220000000001</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>7603.1850000000013</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>13836</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>13787</v>
       </c>
       <c r="U21" s="3">
@@ -3744,7 +3784,9 @@
       <c r="L22" s="3">
         <v>2805</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>3039</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3">
@@ -3783,19 +3825,19 @@
         <v>24</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:F23" si="56">C21-C22</f>
+        <f t="shared" ref="C23:F23" si="60">C21-C22</f>
         <v>1171</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1289</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1548</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1789</v>
       </c>
       <c r="G23" s="3">
@@ -3803,46 +3845,49 @@
         <v>1340</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23:L23" si="57">H21-H22</f>
+        <f t="shared" ref="H23:M23" si="61">H21-H22</f>
         <v>1422</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1693</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1847</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1316</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>1620</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <f t="shared" si="61"/>
+        <v>1888</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3">
-        <f t="shared" ref="P23:T23" si="58">P21-P22</f>
+        <f t="shared" ref="P23:T23" si="62">P21-P22</f>
         <v>4218.1930000000011</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>4416.2320000000009</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>582.26800000000094</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>4755</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>4860</v>
       </c>
       <c r="U23" s="3">
@@ -3897,7 +3942,9 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="25"/>
       <c r="P24" s="3">
@@ -3933,7 +3980,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C25" s="3">
         <v>37</v>
@@ -3966,7 +4013,9 @@
       <c r="L25" s="3">
         <v>27</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>28</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -4005,19 +4054,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:F26" si="59">C23+C25</f>
+        <f t="shared" ref="C26:F26" si="63">C23+C25</f>
         <v>1208</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1327</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1589</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1843</v>
       </c>
       <c r="G26" s="3">
@@ -4025,46 +4074,49 @@
         <v>1390</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ref="H26:L26" si="60">H23+H25</f>
+        <f t="shared" ref="H26:M26" si="64">H23+H25</f>
         <v>1468</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1736</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1889</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1346</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>1647</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <f t="shared" si="64"/>
+        <v>1916</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3">
-        <f t="shared" ref="P26:T26" si="61">P23+P24+P25</f>
+        <f t="shared" ref="P26:T26" si="65">P23+P24+P25</f>
         <v>4173.2210000000014</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>4406.206000000001</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>89.301000000000926</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>4398</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>4636</v>
       </c>
       <c r="U26" s="3">
@@ -4120,7 +4172,9 @@
       <c r="L27" s="3">
         <v>404</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>474</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3">
@@ -4159,19 +4213,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:F28" si="62">C26-C27</f>
+        <f t="shared" ref="C28:F28" si="66">C26-C27</f>
         <v>891</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>989</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1191</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1403</v>
       </c>
       <c r="G28" s="3">
@@ -4179,46 +4233,49 @@
         <v>1070</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28:L28" si="63">H26-H27</f>
+        <f t="shared" ref="H28:M28" si="67">H26-H27</f>
         <v>1099</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1297</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1398</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1036</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1243</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3">
+        <f t="shared" si="67"/>
+        <v>1442</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:T28" si="64">P26-P27</f>
+        <f t="shared" ref="P28:T28" si="68">P26-P27</f>
         <v>3059.8080000000014</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>3272.2160000000013</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>90.508000000000919</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>3283</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>3498</v>
       </c>
       <c r="U28" s="3">
@@ -4258,27 +4315,27 @@
         <v>29</v>
       </c>
       <c r="C30" s="26">
-        <f t="shared" ref="C30:H30" si="65">+C28/C31</f>
+        <f t="shared" ref="C30:H30" si="69">+C28/C31</f>
         <v>0.78502202643171803</v>
       </c>
       <c r="D30" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.86149825783972123</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.041083916083916</v>
       </c>
       <c r="F30" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1.2242582897033158</v>
       </c>
       <c r="G30" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.94522968197879864</v>
       </c>
       <c r="H30" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0.96066433566433562</v>
       </c>
       <c r="I30" s="26">
@@ -4286,46 +4343,49 @@
         <v>1.1508429458740017</v>
       </c>
       <c r="J30" s="26">
-        <f t="shared" ref="J30:L30" si="66">+J28/J31</f>
+        <f t="shared" ref="J30:M30" si="70">+J28/J31</f>
         <v>1.2284710017574691</v>
       </c>
       <c r="K30" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0.9151943462897526</v>
       </c>
       <c r="L30" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>1.1019503546099292</v>
       </c>
-      <c r="M30" s="26"/>
+      <c r="M30" s="26">
+        <f t="shared" si="70"/>
+        <v>1.280639431616341</v>
+      </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26">
-        <f t="shared" ref="P30:V30" si="67">P28/P31</f>
+        <f t="shared" ref="P30:V30" si="71">P28/P31</f>
         <v>2.4652947702660359</v>
       </c>
       <c r="Q30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2.7084226217819958</v>
       </c>
       <c r="R30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>7.5427921865247577E-2</v>
       </c>
       <c r="S30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>2.7358333333333333</v>
       </c>
       <c r="T30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="U30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>3.9040139616055844</v>
       </c>
       <c r="V30" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4.2591943957968477</v>
       </c>
       <c r="W30" s="24"/>
@@ -4367,7 +4427,9 @@
       <c r="L31" s="3">
         <v>1128</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3">
+        <v>1126</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="24"/>
       <c r="P31" s="3">
@@ -4460,106 +4522,103 @@
       <c r="B34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="27">
-        <f t="shared" ref="C34:J37" si="68">C15/C$19</f>
-        <v>0.62513791054909618</v>
-      </c>
-      <c r="D34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.61945445994670012</v>
-      </c>
-      <c r="E34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.61115718055032042</v>
-      </c>
-      <c r="F34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.6116019742855402</v>
-      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.62104335283275902</v>
+        <f t="shared" ref="G34:N37" si="72">G4/C4-1</f>
+        <v>1.7871017871017969E-2</v>
       </c>
       <c r="H34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.62704187704187708</v>
+        <f t="shared" si="72"/>
+        <v>2.0558572536850228E-2</v>
       </c>
       <c r="I34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.60001422171656116</v>
+        <f t="shared" si="72"/>
+        <v>2.1513638109873279E-2</v>
       </c>
       <c r="J34" s="27">
-        <f t="shared" si="68"/>
-        <v>0.60984709480122323</v>
-      </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="24"/>
+        <f t="shared" si="72"/>
+        <v>5.9220985691573969E-2</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="72"/>
+        <v>-1.8320610687022953E-2</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="72"/>
+        <v>-2.1664766248574718E-2</v>
+      </c>
+      <c r="M34" s="27">
+        <f t="shared" si="72"/>
+        <v>-2.4445280180518947E-2</v>
+      </c>
+      <c r="N34" s="27">
+        <f t="shared" si="72"/>
+        <v>-1</v>
+      </c>
       <c r="O34" s="24"/>
-      <c r="P34" s="27">
-        <f t="shared" ref="P34:AE34" si="69">P15/P$19</f>
-        <v>0.61730020121143558</v>
-      </c>
+      <c r="P34" s="27"/>
       <c r="Q34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.61521681808375484</v>
-      </c>
-      <c r="R34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.60251423592743569</v>
-      </c>
-      <c r="S34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.60727085478887743</v>
-      </c>
-      <c r="T34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.6116829541813521</v>
-      </c>
-      <c r="U34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.61628271575336147</v>
-      </c>
-      <c r="V34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.61398154719659337</v>
-      </c>
-      <c r="W34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.64465826699485407</v>
-      </c>
-      <c r="X34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.64780288819103005</v>
-      </c>
-      <c r="Y34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65087886817228779</v>
-      </c>
-      <c r="Z34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65388818567113582</v>
-      </c>
-      <c r="AA34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65651518197448089</v>
-      </c>
-      <c r="AB34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65303888112450725</v>
-      </c>
-      <c r="AC34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65314272751207469</v>
-      </c>
-      <c r="AD34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.65953945963212235</v>
-      </c>
-      <c r="AE34" s="27">
-        <f t="shared" si="69"/>
-        <v>0.66631596252455072</v>
+        <f t="shared" ref="Q34:AE34" si="73">Q4/P4-1</f>
+        <v>2.5608194622279035E-2</v>
+      </c>
+      <c r="R34" s="28">
+        <f t="shared" si="73"/>
+        <v>-4.1614648356225192E-4</v>
+      </c>
+      <c r="S34" s="28">
+        <f t="shared" si="73"/>
+        <v>1.2489592006661221E-2</v>
+      </c>
+      <c r="T34" s="28">
+        <f t="shared" si="73"/>
+        <v>2.0559210526315708E-2</v>
+      </c>
+      <c r="U34" s="28">
+        <f t="shared" si="73"/>
+        <v>1.3698630136986356E-2</v>
+      </c>
+      <c r="V34" s="28">
+        <f t="shared" si="73"/>
+        <v>5.9220985691573969E-2</v>
+      </c>
+      <c r="W34" s="28">
+        <f t="shared" si="73"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="X34" s="28">
+        <f t="shared" si="73"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Y34" s="28">
+        <f t="shared" si="73"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="Z34" s="28">
+        <f t="shared" si="73"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AA34" s="28">
+        <f t="shared" si="73"/>
+        <v>2.8550000000000075E-2</v>
+      </c>
+      <c r="AB34" s="28">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="28">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="28">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="28">
+        <f t="shared" si="73"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4567,106 +4626,103 @@
       <c r="B35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.16685054739879487</v>
-      </c>
-      <c r="D35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.15762658723937922</v>
-      </c>
-      <c r="E35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.16645307199396908</v>
-      </c>
-      <c r="F35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.17092194259947596</v>
-      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.16659988781152335</v>
+        <f t="shared" si="72"/>
+        <v>3.2631578947368345E-2</v>
       </c>
       <c r="H35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.15599940599940601</v>
+        <f t="shared" si="72"/>
+        <v>3.7656903765690419E-2</v>
       </c>
       <c r="I35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.16746071250799971</v>
+        <f t="shared" si="72"/>
+        <v>4.1322314049586861E-2</v>
       </c>
       <c r="J35" s="27">
-        <f t="shared" si="68"/>
-        <v>0.1743730886850153</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="24"/>
+        <f t="shared" si="72"/>
+        <v>0.18685831622176585</v>
+      </c>
+      <c r="K35" s="27">
+        <f t="shared" si="72"/>
+        <v>0.17023445463812426</v>
+      </c>
+      <c r="L35" s="27">
+        <f t="shared" si="72"/>
+        <v>0.16431451612903225</v>
+      </c>
+      <c r="M35" s="27">
+        <f t="shared" si="72"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="N35" s="27">
+        <f t="shared" si="72"/>
+        <v>-1</v>
+      </c>
       <c r="O35" s="24"/>
-      <c r="P35" s="27">
-        <f t="shared" ref="P35:AE35" si="70">P16/P$19</f>
-        <v>0.14849792935784611</v>
-      </c>
+      <c r="P35" s="27"/>
       <c r="Q35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.15235994918138887</v>
+        <f t="shared" ref="Q35:AE35" si="74">Q5/P5-1</f>
+        <v>9.9346405228758261E-2</v>
       </c>
       <c r="R35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18968789868376015</v>
+        <f t="shared" si="74"/>
+        <v>1.6646848989298357E-2</v>
       </c>
       <c r="S35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18527291452111225</v>
+        <f t="shared" si="74"/>
+        <v>3.9766081871345005E-2</v>
       </c>
       <c r="T35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.16549182954181352</v>
+        <f t="shared" si="74"/>
+        <v>5.7367829021372385E-2</v>
       </c>
       <c r="U35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.16581515022963278</v>
+        <f t="shared" si="74"/>
+        <v>3.6170212765957555E-2</v>
       </c>
       <c r="V35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.16653655074520937</v>
+        <f t="shared" si="74"/>
+        <v>0.18685831622176585</v>
       </c>
       <c r="W35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.1878551295361145</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="X35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18782893218899485</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="Y35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18777851010619676</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="Z35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.1877047727436417</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="AA35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18778224300266944</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="AB35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.19143093491072</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="AC35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.19622055908272831</v>
+        <f t="shared" si="74"/>
+        <v>5.4999999999999938E-2</v>
       </c>
       <c r="AD35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.19315477412712151</v>
+        <f t="shared" si="74"/>
+        <v>3.5000000000000586E-3</v>
       </c>
       <c r="AE35" s="27">
-        <f t="shared" si="70"/>
-        <v>0.18956395146903726</v>
+        <f t="shared" si="74"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -4674,106 +4730,103 @@
       <c r="B36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="27">
-        <f t="shared" si="68"/>
-        <v>8.8093015361113469E-2</v>
-      </c>
-      <c r="D36" s="27">
-        <f t="shared" si="68"/>
-        <v>9.586142028531118E-2</v>
-      </c>
-      <c r="E36" s="27">
-        <f t="shared" si="68"/>
-        <v>9.9283829626837544E-2</v>
-      </c>
-      <c r="F36" s="27">
-        <f t="shared" si="68"/>
-        <v>8.9452196697337158E-2</v>
-      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="27">
-        <f t="shared" si="68"/>
-        <v>8.9189838929401397E-2</v>
+        <f t="shared" si="72"/>
+        <v>1.9784172661870603E-2</v>
       </c>
       <c r="H36" s="27">
-        <f t="shared" si="68"/>
-        <v>9.2367092367092368E-2</v>
+        <f t="shared" si="72"/>
+        <v>2.3255813953488413E-2</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" si="68"/>
-        <v>9.8272061437815542E-2</v>
+        <f t="shared" si="72"/>
+        <v>1.9469026548672552E-2</v>
       </c>
       <c r="J36" s="27">
-        <f t="shared" si="68"/>
-        <v>8.8685015290519878E-2</v>
-      </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="24"/>
+        <f t="shared" si="72"/>
+        <v>-0.27915194346289751</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="72"/>
+        <v>2.4691358024691468E-2</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="72"/>
+        <v>1.7482517482517501E-2</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="72"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="N36" s="27">
+        <f t="shared" si="72"/>
+        <v>-1</v>
+      </c>
       <c r="O36" s="24"/>
-      <c r="P36" s="27">
-        <f t="shared" ref="P36:AE36" si="71">P17/P$19</f>
-        <v>9.9294551444343404E-2</v>
-      </c>
+      <c r="P36" s="27"/>
       <c r="Q36" s="27">
-        <f t="shared" si="71"/>
-        <v>9.6627274252702733E-2</v>
+        <f t="shared" ref="Q36:AE36" si="75">Q6/P6-1</f>
+        <v>5.9917355371900793E-2</v>
       </c>
       <c r="R36" s="27">
-        <f t="shared" si="71"/>
-        <v>8.8247191710489462E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.3391812865497075E-2</v>
       </c>
       <c r="S36" s="27">
-        <f t="shared" si="71"/>
-        <v>8.9454170957775483E-2</v>
+        <f t="shared" si="75"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T36" s="27">
-        <f t="shared" si="71"/>
-        <v>9.8365908362704257E-2</v>
+        <f t="shared" si="75"/>
+        <v>1.46520146520146E-2</v>
       </c>
       <c r="U36" s="27">
-        <f t="shared" si="71"/>
-        <v>9.307043916114871E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.1660649819494671E-2</v>
       </c>
       <c r="V36" s="27">
-        <f t="shared" si="71"/>
-        <v>9.2068843151171045E-2</v>
+        <f t="shared" si="75"/>
+        <v>-0.27915194346289751</v>
       </c>
       <c r="W36" s="27">
-        <f t="shared" si="71"/>
-        <v>6.0707952218678064E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="X36" s="27">
-        <f t="shared" si="71"/>
-        <v>5.8110408578047029E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y36" s="27">
-        <f t="shared" si="71"/>
-        <v>5.5616831386613282E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z36" s="27">
-        <f t="shared" si="71"/>
-        <v>5.3223641268455142E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA36" s="27">
-        <f t="shared" si="71"/>
-        <v>5.0974468265778734E-2</v>
+        <f t="shared" si="75"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB36" s="27">
-        <f t="shared" si="71"/>
-        <v>4.9738656728944113E-2</v>
+        <f t="shared" si="75"/>
+        <v>1.980000000000004E-2</v>
       </c>
       <c r="AC36" s="27">
-        <f t="shared" si="71"/>
-        <v>4.7851458898065802E-2</v>
+        <f t="shared" si="75"/>
+        <v>0</v>
       </c>
       <c r="AD36" s="27">
-        <f t="shared" si="71"/>
-        <v>4.6479339346882774E-2</v>
+        <f t="shared" si="75"/>
+        <v>0</v>
       </c>
       <c r="AE36" s="27">
-        <f t="shared" si="71"/>
-        <v>4.5168061750839032E-2</v>
+        <f t="shared" si="75"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -4781,632 +4834,572 @@
       <c r="B37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.13044216243740983</v>
-      </c>
-      <c r="D37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.12705753252860949</v>
-      </c>
-      <c r="E37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.12310591782887298</v>
-      </c>
-      <c r="F37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.12046797879471087</v>
-      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.12316692042631622</v>
+        <f t="shared" si="72"/>
+        <v>2.420382165605095E-2</v>
       </c>
       <c r="H37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.12459162459162459</v>
+        <f t="shared" si="72"/>
+        <v>1.896333754740831E-2</v>
       </c>
       <c r="I37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.13425300433762355</v>
+        <f t="shared" si="72"/>
+        <v>2.0050125313283207E-2</v>
       </c>
       <c r="J37" s="27">
-        <f t="shared" si="68"/>
-        <v>0.1270948012232416</v>
-      </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="24"/>
+        <f t="shared" si="72"/>
+        <v>-9.9626400996263964E-2</v>
+      </c>
+      <c r="K37" s="27">
+        <f t="shared" si="72"/>
+        <v>1.990049751243772E-2</v>
+      </c>
+      <c r="L37" s="27">
+        <f t="shared" si="72"/>
+        <v>2.1091811414392092E-2</v>
+      </c>
+      <c r="M37" s="27">
+        <f t="shared" si="72"/>
+        <v>2.3341523341523285E-2</v>
+      </c>
+      <c r="N37" s="27">
+        <f t="shared" si="72"/>
+        <v>-1</v>
+      </c>
       <c r="O37" s="24"/>
-      <c r="P37" s="27">
-        <f t="shared" ref="P37:AE37" si="72">P18/P$19</f>
-        <v>0.13490901146934434</v>
-      </c>
+      <c r="P37" s="27"/>
       <c r="Q37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.13579595848215356</v>
+        <f t="shared" ref="Q37:AE37" si="76">Q7/P7-1</f>
+        <v>6.9219440353460948E-2</v>
       </c>
       <c r="R37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.11955067367831472</v>
+        <f t="shared" si="76"/>
+        <v>2.2038567493112948E-2</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.11800205973223481</v>
+        <f t="shared" si="76"/>
+        <v>2.8301886792452935E-2</v>
       </c>
       <c r="T37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.12445930791413008</v>
+        <f t="shared" si="76"/>
+        <v>2.3591087811271283E-2</v>
       </c>
       <c r="U37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.12483169485585702</v>
+        <f t="shared" si="76"/>
+        <v>2.8169014084507005E-2</v>
       </c>
       <c r="V37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.12741305890702626</v>
+        <f t="shared" si="76"/>
+        <v>-9.9626400996263964E-2</v>
       </c>
       <c r="W37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10677865125035342</v>
+        <f t="shared" si="76"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="X37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10625777104192811</v>
+        <f t="shared" si="76"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Y37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10572579033490231</v>
+        <f t="shared" si="76"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10518340031676737</v>
+        <f t="shared" si="76"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="AA37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10472810675707098</v>
+        <f t="shared" si="76"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="AB37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10579152723582852</v>
+        <f t="shared" si="76"/>
+        <v>4.5400000000000107E-2</v>
       </c>
       <c r="AC37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10278525450713134</v>
-      </c>
-      <c r="AD37" s="27">
-        <f t="shared" si="72"/>
-        <v>0.10082642689387325</v>
-      </c>
-      <c r="AE37" s="27">
-        <f t="shared" si="72"/>
-        <v>9.8952024255572868E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="27">
-        <f t="shared" ref="G38:J41" si="73">G4/C4-1</f>
-        <v>1.7871017871017969E-2</v>
-      </c>
-      <c r="H38" s="27">
-        <f t="shared" si="73"/>
-        <v>2.0558572536850228E-2</v>
-      </c>
-      <c r="I38" s="27">
-        <f t="shared" si="73"/>
-        <v>2.1513638109873279E-2</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="73"/>
-        <v>5.9220985691573969E-2</v>
-      </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27">
-        <f t="shared" ref="Q38:AE38" si="74">Q4/P4-1</f>
-        <v>2.5608194622279035E-2</v>
-      </c>
-      <c r="R38" s="28">
-        <f t="shared" si="74"/>
-        <v>-4.1614648356225192E-4</v>
-      </c>
-      <c r="S38" s="28">
-        <f t="shared" si="74"/>
-        <v>1.2489592006661221E-2</v>
-      </c>
-      <c r="T38" s="28">
-        <f t="shared" si="74"/>
-        <v>2.0559210526315708E-2</v>
-      </c>
-      <c r="U38" s="28">
-        <f t="shared" si="74"/>
-        <v>1.3698630136986356E-2</v>
-      </c>
-      <c r="V38" s="28">
-        <f t="shared" si="74"/>
-        <v>5.9220985691573969E-2</v>
-      </c>
-      <c r="W38" s="28">
-        <f t="shared" si="74"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="X38" s="28">
-        <f t="shared" si="74"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Y38" s="28">
-        <f t="shared" si="74"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z38" s="28">
-        <f t="shared" si="74"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AA38" s="28">
-        <f t="shared" si="74"/>
-        <v>2.8550000000000075E-2</v>
-      </c>
-      <c r="AB38" s="28">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="28">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="28">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="28">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="27">
-        <f t="shared" si="73"/>
-        <v>3.2631578947368345E-2</v>
-      </c>
-      <c r="H39" s="27">
-        <f t="shared" si="73"/>
-        <v>3.7656903765690419E-2</v>
-      </c>
-      <c r="I39" s="27">
-        <f t="shared" si="73"/>
-        <v>4.1322314049586861E-2</v>
-      </c>
-      <c r="J39" s="27">
-        <f t="shared" si="73"/>
-        <v>0.18685831622176585</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27">
-        <f t="shared" ref="Q39:AE39" si="75">Q5/P5-1</f>
-        <v>9.9346405228758261E-2</v>
-      </c>
-      <c r="R39" s="27">
-        <f t="shared" si="75"/>
-        <v>1.6646848989298357E-2</v>
-      </c>
-      <c r="S39" s="27">
-        <f t="shared" si="75"/>
-        <v>3.9766081871345005E-2</v>
-      </c>
-      <c r="T39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.7367829021372385E-2</v>
-      </c>
-      <c r="U39" s="27">
-        <f t="shared" si="75"/>
-        <v>3.6170212765957555E-2</v>
-      </c>
-      <c r="V39" s="27">
-        <f t="shared" si="75"/>
-        <v>0.18685831622176585</v>
-      </c>
-      <c r="W39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="X39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="Y39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="Z39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="AA39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="AB39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="AC39" s="27">
-        <f t="shared" si="75"/>
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="AD39" s="27">
-        <f t="shared" si="75"/>
-        <v>3.5000000000000586E-3</v>
-      </c>
-      <c r="AE39" s="27">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="27">
-        <f t="shared" si="73"/>
-        <v>1.9784172661870603E-2</v>
-      </c>
-      <c r="H40" s="27">
-        <f t="shared" si="73"/>
-        <v>2.3255813953488413E-2</v>
-      </c>
-      <c r="I40" s="27">
-        <f t="shared" si="73"/>
-        <v>1.9469026548672552E-2</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" si="73"/>
-        <v>-0.27915194346289751</v>
-      </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27">
-        <f t="shared" ref="Q40:AE40" si="76">Q6/P6-1</f>
-        <v>5.9917355371900793E-2</v>
-      </c>
-      <c r="R40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.3391812865497075E-2</v>
-      </c>
-      <c r="S40" s="27">
-        <f t="shared" si="76"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="T40" s="27">
-        <f t="shared" si="76"/>
-        <v>1.46520146520146E-2</v>
-      </c>
-      <c r="U40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.1660649819494671E-2</v>
-      </c>
-      <c r="V40" s="27">
-        <f t="shared" si="76"/>
-        <v>-0.27915194346289751</v>
-      </c>
-      <c r="W40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="X40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="Y40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="Z40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AA40" s="27">
-        <f t="shared" si="76"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AB40" s="27">
-        <f t="shared" si="76"/>
-        <v>1.980000000000004E-2</v>
-      </c>
-      <c r="AC40" s="27">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="27">
+      <c r="AD37" s="27">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="27">
+      <c r="AE37" s="27">
         <f t="shared" si="76"/>
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28">
+        <f>G19/C19-1</f>
+        <v>5.9068149028260963E-2</v>
+      </c>
+      <c r="H38" s="28">
+        <f>H19/D19-1</f>
+        <v>5.5651356011914066E-2</v>
+      </c>
+      <c r="I38" s="28">
+        <f>I19/E19-1</f>
+        <v>6.0158311345646531E-2</v>
+      </c>
+      <c r="J38" s="28">
+        <f>J19/F19-1</f>
+        <v>-3.7170190725732688E-3</v>
+      </c>
+      <c r="K38" s="28">
+        <f t="shared" ref="K38:N38" si="77">K19/G19-1</f>
+        <v>5.0645083740684438E-2</v>
+      </c>
+      <c r="L38" s="28">
+        <f t="shared" si="77"/>
+        <v>6.9275319275319269E-2</v>
+      </c>
+      <c r="M38" s="28">
+        <f t="shared" si="77"/>
+        <v>7.4948446277465663E-2</v>
+      </c>
+      <c r="N38" s="28">
+        <f t="shared" si="77"/>
+        <v>-1</v>
+      </c>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="27">
+        <f t="shared" ref="Q38:AE38" si="78">Q19/P19-1</f>
+        <v>7.0409530881098137E-2</v>
+      </c>
+      <c r="R38" s="27">
+        <f t="shared" si="78"/>
+        <v>-0.22964259174916701</v>
+      </c>
+      <c r="S38" s="27">
+        <f t="shared" si="78"/>
+        <v>0.51071973115100966</v>
+      </c>
+      <c r="T38" s="27">
+        <f t="shared" si="78"/>
+        <v>2.854788877445924E-2</v>
+      </c>
+      <c r="U38" s="27">
+        <f t="shared" si="78"/>
+        <v>8.5729734059596385E-2</v>
+      </c>
+      <c r="V38" s="27">
+        <f t="shared" si="78"/>
+        <v>3.9526347824483166E-2</v>
+      </c>
+      <c r="W38" s="27">
+        <f t="shared" si="78"/>
+        <v>0.10615841957089955</v>
+      </c>
+      <c r="X38" s="27">
+        <f t="shared" si="78"/>
+        <v>7.625008851355819E-2</v>
+      </c>
+      <c r="Y38" s="27">
+        <f t="shared" si="78"/>
+        <v>7.6388953210185129E-2</v>
+      </c>
+      <c r="Z38" s="27">
+        <f t="shared" si="78"/>
+        <v>7.6522731796776933E-2</v>
+      </c>
+      <c r="AA38" s="27">
+        <f t="shared" si="78"/>
+        <v>7.5656050964102217E-2</v>
+      </c>
+      <c r="AB38" s="27">
+        <f t="shared" si="78"/>
+        <v>5.5589431193111993E-2</v>
+      </c>
+      <c r="AC38" s="27">
+        <f t="shared" si="78"/>
+        <v>4.9833055314937091E-2</v>
+      </c>
+      <c r="AD38" s="27">
+        <f t="shared" si="78"/>
+        <v>3.9816274632307191E-2</v>
+      </c>
+      <c r="AE38" s="27">
+        <f t="shared" si="78"/>
+        <v>3.932139039549476E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="27">
+        <f t="shared" ref="C39:N39" si="79">C21/C19</f>
+        <v>0.28931511499618096</v>
+      </c>
+      <c r="D39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.30161467314626117</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.31104410101771579</v>
+      </c>
+      <c r="F39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.29754433002254588</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.29970350188316369</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.30353430353430355</v>
+      </c>
+      <c r="I39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.31579321624120033</v>
+      </c>
+      <c r="J39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.30452599388379203</v>
+      </c>
+      <c r="K39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.29479063381893067</v>
+      </c>
+      <c r="L39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.30727032844941321</v>
+      </c>
+      <c r="M39" s="27">
+        <f t="shared" si="79"/>
+        <v>0.32592445591056429</v>
+      </c>
+      <c r="N39" s="27" t="e">
+        <f t="shared" si="79"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="27">
+        <f t="shared" ref="P39:U39" si="80">P21/P19</f>
+        <v>0.28588448075271933</v>
+      </c>
+      <c r="Q39" s="27">
+        <f t="shared" si="80"/>
+        <v>0.28456552484598607</v>
+      </c>
+      <c r="R39" s="27">
+        <f t="shared" si="80"/>
+        <v>0.23658664467747459</v>
+      </c>
+      <c r="S39" s="27">
+        <f t="shared" si="80"/>
+        <v>0.28498455200823891</v>
+      </c>
+      <c r="T39" s="27">
+        <f t="shared" si="80"/>
+        <v>0.27609339955142581</v>
+      </c>
+      <c r="U39" s="27">
+        <f t="shared" si="80"/>
+        <v>0.30001659995942231</v>
+      </c>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="27">
+        <f t="shared" ref="C40:N40" si="81">C23/C19</f>
+        <v>9.9380463379444964E-2</v>
+      </c>
+      <c r="D40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.1010346449286722</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.11669807764794572</v>
+      </c>
+      <c r="F40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.10901224788251783</v>
+      </c>
+      <c r="G40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.10738039907043834</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.10558360558360558</v>
+      </c>
+      <c r="I40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.12038683069046434</v>
+      </c>
+      <c r="J40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.11296636085626911</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.10037373198077949</v>
+      </c>
+      <c r="L40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.11249218804249705</v>
+      </c>
+      <c r="M40" s="27">
+        <f t="shared" si="81"/>
+        <v>0.12489250512667857</v>
+      </c>
+      <c r="N40" s="27" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="24"/>
+      <c r="P40" s="27">
+        <f t="shared" ref="P40:U40" si="82">P23/P19</f>
+        <v>0.10823390920478301</v>
+      </c>
+      <c r="Q40" s="27">
+        <f t="shared" si="82"/>
+        <v>0.10586168708200495</v>
+      </c>
+      <c r="R40" s="27">
+        <f t="shared" si="82"/>
+        <v>1.8118306002427139E-2</v>
+      </c>
+      <c r="S40" s="27">
+        <f t="shared" si="82"/>
+        <v>9.794026776519052E-2</v>
+      </c>
+      <c r="T40" s="27">
+        <f t="shared" si="82"/>
+        <v>9.7324575456584433E-2</v>
+      </c>
+      <c r="U40" s="27">
+        <f t="shared" si="82"/>
+        <v>0.10692218307910803</v>
+      </c>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
       <c r="B41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="C41" s="27">
+        <f t="shared" ref="C41:N41" si="83">C28/C19</f>
+        <v>7.5617414919799716E-2</v>
+      </c>
+      <c r="D41" s="27">
+        <f t="shared" si="83"/>
+        <v>7.7519987458849346E-2</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="83"/>
+        <v>8.9785148888051267E-2</v>
+      </c>
+      <c r="F41" s="27">
+        <f t="shared" si="83"/>
+        <v>8.5491438669185307E-2</v>
+      </c>
       <c r="G41" s="27">
-        <f t="shared" si="73"/>
-        <v>2.420382165605095E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.5744050004006728E-2</v>
       </c>
       <c r="H41" s="27">
-        <f t="shared" si="73"/>
-        <v>1.896333754740831E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.1600831600831605E-2</v>
       </c>
       <c r="I41" s="27">
-        <f t="shared" si="73"/>
-        <v>2.0050125313283207E-2</v>
+        <f t="shared" si="83"/>
+        <v>9.2227831899310247E-2</v>
       </c>
       <c r="J41" s="27">
-        <f t="shared" si="73"/>
-        <v>-9.9626400996263964E-2</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="24"/>
+        <f t="shared" si="83"/>
+        <v>8.5504587155963305E-2</v>
+      </c>
+      <c r="K41" s="27">
+        <f t="shared" si="83"/>
+        <v>7.901761879337961E-2</v>
+      </c>
+      <c r="L41" s="27">
+        <f t="shared" si="83"/>
+        <v>8.6313450454829521E-2</v>
+      </c>
+      <c r="M41" s="27">
+        <f t="shared" si="83"/>
+        <v>9.5389296818151753E-2</v>
+      </c>
+      <c r="N41" s="27" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O41" s="24"/>
-      <c r="P41" s="27"/>
+      <c r="P41" s="27">
+        <f t="shared" ref="P41:U41" si="84">P28/P19</f>
+        <v>7.8511102089465504E-2</v>
+      </c>
       <c r="Q41" s="27">
-        <f t="shared" ref="Q41:AE41" si="77">Q7/P7-1</f>
-        <v>6.9219440353460948E-2</v>
+        <f t="shared" si="84"/>
+        <v>7.8438430376105692E-2</v>
       </c>
       <c r="R41" s="27">
-        <f t="shared" si="77"/>
-        <v>2.2038567493112948E-2</v>
+        <f t="shared" si="84"/>
+        <v>2.8163176401033363E-3</v>
       </c>
       <c r="S41" s="27">
-        <f t="shared" si="77"/>
-        <v>2.8301886792452935E-2</v>
+        <f t="shared" si="84"/>
+        <v>6.7621009268795051E-2</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="77"/>
-        <v>2.3591087811271283E-2</v>
+        <f t="shared" si="84"/>
+        <v>7.0049663569368786E-2</v>
       </c>
       <c r="U41" s="27">
-        <f t="shared" si="77"/>
-        <v>2.8169014084507005E-2</v>
-      </c>
-      <c r="V41" s="27">
-        <f t="shared" si="77"/>
-        <v>-9.9626400996263964E-2</v>
-      </c>
-      <c r="W41" s="27">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X41" s="27">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Y41" s="27">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Z41" s="27">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AA41" s="27">
-        <f t="shared" si="77"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AB41" s="27">
-        <f t="shared" si="77"/>
-        <v>4.5400000000000107E-2</v>
-      </c>
-      <c r="AC41" s="27">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="27">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="27">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="84"/>
+        <v>8.2520242728295556E-2</v>
+      </c>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="27">
+        <f t="shared" ref="C42:N42" si="85">C27/C26</f>
+        <v>0.26241721854304634</v>
+      </c>
+      <c r="D42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.25470987189148453</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.25047199496538702</v>
+      </c>
+      <c r="F42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.23874118285404233</v>
+      </c>
       <c r="G42" s="27">
-        <f>G19/C19-1</f>
-        <v>5.9068149028260963E-2</v>
+        <f t="shared" si="85"/>
+        <v>0.23021582733812951</v>
       </c>
       <c r="H42" s="27">
-        <f>H19/D19-1</f>
-        <v>5.5651356011914066E-2</v>
+        <f t="shared" si="85"/>
+        <v>0.25136239782016351</v>
       </c>
       <c r="I42" s="27">
-        <f>I19/E19-1</f>
-        <v>6.0158311345646531E-2</v>
+        <f t="shared" si="85"/>
+        <v>0.25288018433179721</v>
       </c>
       <c r="J42" s="27">
-        <f>J19/F19-1</f>
-        <v>-3.7170190725732688E-3</v>
-      </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
+        <f t="shared" si="85"/>
+        <v>0.25992588671254629</v>
+      </c>
+      <c r="K42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.23031203566121841</v>
+      </c>
+      <c r="L42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.24529447480267152</v>
+      </c>
+      <c r="M42" s="27">
+        <f t="shared" si="85"/>
+        <v>0.24739039665970772</v>
+      </c>
+      <c r="N42" s="27" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
+      <c r="P42" s="27">
+        <f t="shared" ref="P42:U42" si="86">P27/P26</f>
+        <v>0.26679943381862586</v>
+      </c>
       <c r="Q42" s="27">
-        <f t="shared" ref="Q42:AE42" si="78">Q19/P19-1</f>
-        <v>7.0409530881098137E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.25736200259361447</v>
       </c>
       <c r="R42" s="27">
-        <f t="shared" si="78"/>
-        <v>-0.22964259174916701</v>
+        <f t="shared" si="86"/>
+        <v>-1.3516086046068774E-2</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="78"/>
-        <v>0.51071973115100966</v>
+        <f t="shared" si="86"/>
+        <v>0.25352432924056389</v>
       </c>
       <c r="T42" s="27">
-        <f t="shared" si="78"/>
-        <v>2.854788877445924E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.24547023295944781</v>
       </c>
       <c r="U42" s="27">
-        <f t="shared" si="78"/>
-        <v>8.5729734059596385E-2</v>
-      </c>
-      <c r="V42" s="27">
-        <f t="shared" si="78"/>
-        <v>3.9526347824483166E-2</v>
-      </c>
-      <c r="W42" s="27">
-        <f t="shared" si="78"/>
-        <v>0.10615841957089955</v>
-      </c>
-      <c r="X42" s="27">
-        <f t="shared" si="78"/>
-        <v>7.625008851355819E-2</v>
-      </c>
-      <c r="Y42" s="27">
-        <f t="shared" si="78"/>
-        <v>7.6388953210185129E-2</v>
-      </c>
-      <c r="Z42" s="27">
-        <f t="shared" si="78"/>
-        <v>7.6522731796776933E-2</v>
-      </c>
-      <c r="AA42" s="27">
-        <f t="shared" si="78"/>
-        <v>7.5656050964102217E-2</v>
-      </c>
-      <c r="AB42" s="27">
-        <f t="shared" si="78"/>
-        <v>5.5589431193111993E-2</v>
-      </c>
-      <c r="AC42" s="27">
-        <f t="shared" si="78"/>
-        <v>4.9833055314937091E-2</v>
-      </c>
-      <c r="AD42" s="27">
-        <f t="shared" si="78"/>
-        <v>3.9816274632307191E-2</v>
-      </c>
-      <c r="AE42" s="27">
-        <f t="shared" si="78"/>
-        <v>3.932139039549476E-2</v>
-      </c>
+        <f t="shared" si="86"/>
+        <v>0.25020948550360317</v>
+      </c>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="27">
-        <f t="shared" ref="C43:J43" si="79">C21/C19</f>
-        <v>0.28931511499618096</v>
-      </c>
-      <c r="D43" s="27">
-        <f t="shared" si="79"/>
-        <v>0.30161467314626117</v>
-      </c>
-      <c r="E43" s="27">
-        <f t="shared" si="79"/>
-        <v>0.31104410101771579</v>
-      </c>
-      <c r="F43" s="27">
-        <f t="shared" si="79"/>
-        <v>0.29754433002254588</v>
-      </c>
-      <c r="G43" s="27">
-        <f t="shared" si="79"/>
-        <v>0.29970350188316369</v>
-      </c>
-      <c r="H43" s="27">
-        <f t="shared" si="79"/>
-        <v>0.30353430353430355</v>
-      </c>
-      <c r="I43" s="24">
-        <f t="shared" si="79"/>
-        <v>0.31579321624120033</v>
-      </c>
-      <c r="J43" s="24">
-        <f t="shared" si="79"/>
-        <v>0.30452599388379203</v>
-      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
-      <c r="P43" s="27">
-        <f t="shared" ref="P43:U43" si="80">P21/P19</f>
-        <v>0.28588448075271933</v>
-      </c>
-      <c r="Q43" s="27">
-        <f t="shared" si="80"/>
-        <v>0.28456552484598607</v>
-      </c>
-      <c r="R43" s="27">
-        <f t="shared" si="80"/>
-        <v>0.23658664467747459</v>
-      </c>
-      <c r="S43" s="27">
-        <f t="shared" si="80"/>
-        <v>0.28498455200823891</v>
-      </c>
-      <c r="T43" s="27">
-        <f t="shared" si="80"/>
-        <v>0.27609339955142581</v>
-      </c>
-      <c r="U43" s="27">
-        <f t="shared" si="80"/>
-        <v>0.30001659995942231</v>
-      </c>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
       <c r="V43" s="24"/>
       <c r="W43" s="24"/>
       <c r="X43" s="24"/>
@@ -5417,70 +5410,25 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="27">
-        <f t="shared" ref="C44:J44" si="81">C23/C19</f>
-        <v>9.9380463379444964E-2</v>
-      </c>
-      <c r="D44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.1010346449286722</v>
-      </c>
-      <c r="E44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.11669807764794572</v>
-      </c>
-      <c r="F44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.10901224788251783</v>
-      </c>
-      <c r="G44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.10738039907043834</v>
-      </c>
-      <c r="H44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.10558360558360558</v>
-      </c>
-      <c r="I44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.12038683069046434</v>
-      </c>
-      <c r="J44" s="27">
-        <f t="shared" si="81"/>
-        <v>0.11296636085626911</v>
-      </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="27">
-        <f t="shared" ref="P44:U44" si="82">P23/P19</f>
-        <v>0.10823390920478301</v>
-      </c>
-      <c r="Q44" s="27">
-        <f t="shared" si="82"/>
-        <v>0.10586168708200495</v>
-      </c>
-      <c r="R44" s="27">
-        <f t="shared" si="82"/>
-        <v>1.8118306002427139E-2</v>
-      </c>
-      <c r="S44" s="27">
-        <f t="shared" si="82"/>
-        <v>9.794026776519052E-2</v>
-      </c>
-      <c r="T44" s="27">
-        <f t="shared" si="82"/>
-        <v>9.7324575456584433E-2</v>
-      </c>
-      <c r="U44" s="27">
-        <f t="shared" si="82"/>
-        <v>0.10692218307910803</v>
-      </c>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
       <c r="V44" s="24"/>
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
@@ -5491,70 +5439,31 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="27">
-        <f t="shared" ref="C45:J45" si="83">C28/C19</f>
-        <v>7.5617414919799716E-2</v>
-      </c>
-      <c r="D45" s="27">
-        <f t="shared" si="83"/>
-        <v>7.7519987458849346E-2</v>
-      </c>
-      <c r="E45" s="27">
-        <f t="shared" si="83"/>
-        <v>8.9785148888051267E-2</v>
-      </c>
-      <c r="F45" s="27">
-        <f t="shared" si="83"/>
-        <v>8.5491438669185307E-2</v>
-      </c>
-      <c r="G45" s="27">
-        <f t="shared" si="83"/>
-        <v>8.5744050004006728E-2</v>
-      </c>
-      <c r="H45" s="27">
-        <f t="shared" si="83"/>
-        <v>8.1600831600831605E-2</v>
-      </c>
-      <c r="I45" s="24">
-        <f t="shared" si="83"/>
-        <v>9.2227831899310247E-2</v>
-      </c>
-      <c r="J45" s="24">
-        <f t="shared" si="83"/>
-        <v>8.5504587155963305E-2</v>
-      </c>
+      <c r="A45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
-      <c r="P45" s="27">
-        <f t="shared" ref="P45:U45" si="84">P28/P19</f>
-        <v>7.8511102089465504E-2</v>
-      </c>
-      <c r="Q45" s="27">
-        <f t="shared" si="84"/>
-        <v>7.8438430376105692E-2</v>
-      </c>
-      <c r="R45" s="27">
-        <f t="shared" si="84"/>
-        <v>2.8163176401033363E-3</v>
-      </c>
-      <c r="S45" s="27">
-        <f t="shared" si="84"/>
-        <v>6.7621009268795051E-2</v>
-      </c>
-      <c r="T45" s="27">
-        <f t="shared" si="84"/>
-        <v>7.0049663569368786E-2</v>
-      </c>
-      <c r="U45" s="27">
-        <f t="shared" si="84"/>
-        <v>8.2520242728295556E-2</v>
-      </c>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
       <c r="V45" s="24"/>
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
@@ -5566,68 +5475,38 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="27">
-        <f t="shared" ref="C46:J46" si="85">C27/C26</f>
-        <v>0.26241721854304634</v>
-      </c>
-      <c r="D46" s="27">
-        <f t="shared" si="85"/>
-        <v>0.25470987189148453</v>
-      </c>
-      <c r="E46" s="27">
-        <f t="shared" si="85"/>
-        <v>0.25047199496538702</v>
-      </c>
-      <c r="F46" s="27">
-        <f t="shared" si="85"/>
-        <v>0.23874118285404233</v>
-      </c>
-      <c r="G46" s="27">
-        <f t="shared" si="85"/>
-        <v>0.23021582733812951</v>
-      </c>
-      <c r="H46" s="27">
-        <f t="shared" si="85"/>
-        <v>0.25136239782016351</v>
-      </c>
-      <c r="I46" s="24">
-        <f t="shared" si="85"/>
-        <v>0.25288018433179721</v>
-      </c>
-      <c r="J46" s="24">
-        <f t="shared" si="85"/>
-        <v>0.25992588671254629</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
       <c r="O46" s="24"/>
-      <c r="P46" s="27">
-        <f t="shared" ref="P46:U46" si="86">P27/P26</f>
-        <v>0.26679943381862586</v>
-      </c>
-      <c r="Q46" s="27">
-        <f t="shared" si="86"/>
-        <v>0.25736200259361447</v>
-      </c>
-      <c r="R46" s="27">
-        <f t="shared" si="86"/>
-        <v>-1.3516086046068774E-2</v>
-      </c>
-      <c r="S46" s="27">
-        <f t="shared" si="86"/>
-        <v>0.25352432924056389</v>
-      </c>
-      <c r="T46" s="27">
-        <f t="shared" si="86"/>
-        <v>0.24547023295944781</v>
-      </c>
-      <c r="U46" s="27">
-        <f t="shared" si="86"/>
-        <v>0.25020948550360317</v>
+      <c r="P46" s="24">
+        <v>3030.2289999999998</v>
+      </c>
+      <c r="Q46" s="24">
+        <v>3216.752</v>
+      </c>
+      <c r="R46" s="24">
+        <v>10469.57</v>
+      </c>
+      <c r="S46" s="24">
+        <v>6226.7650000000003</v>
+      </c>
+      <c r="T46" s="24">
+        <v>5477</v>
+      </c>
+      <c r="U46" s="24">
+        <v>5600</v>
       </c>
       <c r="V46" s="24"/>
       <c r="W46" s="24"/>
@@ -5639,6 +5518,9 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -5652,12 +5534,24 @@
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
+      <c r="P47" s="24">
+        <v>346.298</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>386.26100000000002</v>
+      </c>
+      <c r="R47" s="24">
+        <v>461.13900000000001</v>
+      </c>
+      <c r="S47" s="24">
+        <v>517.62300000000005</v>
+      </c>
+      <c r="T47" s="24">
+        <v>563</v>
+      </c>
+      <c r="U47" s="24">
+        <v>529</v>
+      </c>
       <c r="V47" s="24"/>
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
@@ -5668,6 +5562,9 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -5681,12 +5578,24 @@
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
+      <c r="P48" s="24">
+        <v>4579.0330000000004</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>4872.5919999999996</v>
+      </c>
+      <c r="R48" s="24">
+        <v>4337.3980000000001</v>
+      </c>
+      <c r="S48" s="24">
+        <v>5961.5730000000003</v>
+      </c>
+      <c r="T48" s="24">
+        <v>5819</v>
+      </c>
+      <c r="U48" s="24">
+        <v>5965</v>
+      </c>
       <c r="V48" s="24"/>
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
@@ -5696,12 +5605,9 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>38</v>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
@@ -5716,24 +5622,33 @@
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
       <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
+      <c r="P49" s="24">
+        <v>513.66200000000003</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>368.048</v>
+      </c>
+      <c r="R49" s="24">
+        <v>434.97699999999998</v>
+      </c>
+      <c r="S49" s="24">
+        <v>438.09899999999999</v>
+      </c>
+      <c r="T49" s="24">
+        <v>478</v>
+      </c>
+      <c r="U49" s="24">
+        <v>511</v>
+      </c>
       <c r="V49" s="24"/>
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
       <c r="Y49" s="24"/>
       <c r="Z49" s="24"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
@@ -5749,35 +5664,32 @@
       <c r="N50" s="24"/>
       <c r="O50" s="24"/>
       <c r="P50" s="24">
-        <v>3030.2289999999998</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="24">
-        <v>3216.752</v>
+        <v>46.969000000000001</v>
       </c>
       <c r="R50" s="24">
-        <v>10469.57</v>
+        <v>36.262</v>
       </c>
       <c r="S50" s="24">
-        <v>6226.7650000000003</v>
+        <v>114.53700000000001</v>
       </c>
       <c r="T50" s="24">
-        <v>5477</v>
+        <v>119</v>
       </c>
       <c r="U50" s="24">
-        <v>5600</v>
+        <v>59</v>
       </c>
       <c r="V50" s="24"/>
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
       <c r="Y50" s="24"/>
       <c r="Z50" s="24"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>40</v>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -5792,36 +5704,39 @@
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
       <c r="O51" s="24"/>
-      <c r="P51" s="24">
-        <v>346.298</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>386.26100000000002</v>
-      </c>
-      <c r="R51" s="24">
-        <v>461.13900000000001</v>
-      </c>
-      <c r="S51" s="24">
-        <v>517.62300000000005</v>
-      </c>
-      <c r="T51" s="24">
-        <v>563</v>
-      </c>
-      <c r="U51" s="24">
-        <v>529</v>
+      <c r="P51" s="29">
+        <f t="shared" ref="P51:T51" si="87">SUM(P46:P50)</f>
+        <v>8469.2219999999998</v>
+      </c>
+      <c r="Q51" s="29">
+        <f t="shared" si="87"/>
+        <v>8890.6219999999994</v>
+      </c>
+      <c r="R51" s="29">
+        <f t="shared" si="87"/>
+        <v>15739.346000000001</v>
+      </c>
+      <c r="S51" s="29">
+        <f t="shared" si="87"/>
+        <v>13258.597000000002</v>
+      </c>
+      <c r="T51" s="29">
+        <f t="shared" si="87"/>
+        <v>12456</v>
+      </c>
+      <c r="U51" s="29">
+        <f>SUM(U46:U50)</f>
+        <v>12664</v>
       </c>
       <c r="V51" s="24"/>
       <c r="W51" s="24"/>
       <c r="X51" s="24"/>
       <c r="Y51" s="24"/>
       <c r="Z51" s="24"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -5837,35 +5752,32 @@
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
       <c r="P52" s="24">
-        <v>4579.0330000000004</v>
+        <v>5255.2079999999996</v>
       </c>
       <c r="Q52" s="24">
-        <v>4872.5919999999996</v>
+        <v>5325.0479999999998</v>
       </c>
       <c r="R52" s="24">
-        <v>4337.3980000000001</v>
+        <v>5036.0959999999995</v>
       </c>
       <c r="S52" s="24">
-        <v>5961.5730000000003</v>
+        <v>5270.8270000000002</v>
       </c>
       <c r="T52" s="24">
-        <v>5819</v>
+        <v>5783</v>
       </c>
       <c r="U52" s="24">
-        <v>5965</v>
+        <v>6571</v>
       </c>
       <c r="V52" s="24"/>
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
       <c r="Y52" s="24"/>
       <c r="Z52" s="24"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -5881,22 +5793,22 @@
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24">
-        <v>513.66200000000003</v>
+        <v>6.4669999999999996</v>
       </c>
       <c r="Q53" s="24">
-        <v>368.048</v>
+        <v>12.132</v>
       </c>
       <c r="R53" s="24">
-        <v>434.97699999999998</v>
+        <v>127.191</v>
       </c>
       <c r="S53" s="24">
-        <v>438.09899999999999</v>
+        <v>184.971</v>
       </c>
       <c r="T53" s="24">
-        <v>478</v>
+        <v>158</v>
       </c>
       <c r="U53" s="24">
-        <v>511</v>
+        <v>172</v>
       </c>
       <c r="V53" s="24"/>
       <c r="W53" s="24"/>
@@ -5904,9 +5816,9 @@
       <c r="Y53" s="24"/>
       <c r="Z53" s="24"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -5925,19 +5837,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="24">
-        <v>46.969000000000001</v>
+        <v>9060.3320000000003</v>
       </c>
       <c r="R54" s="24">
-        <v>36.262</v>
+        <v>8989.9979999999996</v>
       </c>
       <c r="S54" s="24">
-        <v>114.53700000000001</v>
+        <v>8853.9339999999993</v>
       </c>
       <c r="T54" s="24">
-        <v>119</v>
+        <v>9086</v>
       </c>
       <c r="U54" s="24">
-        <v>59</v>
+        <v>9396</v>
       </c>
       <c r="V54" s="24"/>
       <c r="W54" s="24"/>
@@ -5945,9 +5857,9 @@
       <c r="Y54" s="24"/>
       <c r="Z54" s="24"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>44</v>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -5962,29 +5874,23 @@
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
       <c r="O55" s="24"/>
-      <c r="P55" s="29">
-        <f t="shared" ref="P55:T55" si="87">SUM(P50:P54)</f>
-        <v>8469.2219999999998</v>
-      </c>
-      <c r="Q55" s="29">
-        <f t="shared" si="87"/>
-        <v>8890.6219999999994</v>
-      </c>
-      <c r="R55" s="29">
-        <f t="shared" si="87"/>
-        <v>15739.346000000001</v>
-      </c>
-      <c r="S55" s="29">
-        <f t="shared" si="87"/>
-        <v>13258.597000000002</v>
-      </c>
-      <c r="T55" s="29">
-        <f t="shared" si="87"/>
-        <v>12456</v>
-      </c>
-      <c r="U55" s="29">
-        <f>SUM(U50:U54)</f>
-        <v>12664</v>
+      <c r="P55" s="24">
+        <v>97.552000000000007</v>
+      </c>
+      <c r="Q55" s="24">
+        <v>95.546000000000006</v>
+      </c>
+      <c r="R55" s="24">
+        <v>98.998000000000005</v>
+      </c>
+      <c r="S55" s="24">
+        <v>96.662000000000006</v>
+      </c>
+      <c r="T55" s="24">
+        <v>97</v>
+      </c>
+      <c r="U55" s="24">
+        <v>95</v>
       </c>
       <c r="V55" s="24"/>
       <c r="W55" s="24"/>
@@ -5992,9 +5898,9 @@
       <c r="Y55" s="24"/>
       <c r="Z55" s="24"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -6010,22 +5916,22 @@
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
       <c r="P56" s="24">
-        <v>5255.2079999999996</v>
+        <v>497.58</v>
       </c>
       <c r="Q56" s="24">
-        <v>5325.0479999999998</v>
+        <v>761.32299999999998</v>
       </c>
       <c r="R56" s="24">
-        <v>5036.0959999999995</v>
+        <v>821.93499999999995</v>
       </c>
       <c r="S56" s="24">
-        <v>5270.8270000000002</v>
+        <v>796.46699999999998</v>
       </c>
       <c r="T56" s="24">
-        <v>5783</v>
+        <v>769</v>
       </c>
       <c r="U56" s="24">
-        <v>6571</v>
+        <v>849</v>
       </c>
       <c r="V56" s="24"/>
       <c r="W56" s="24"/>
@@ -6033,9 +5939,9 @@
       <c r="Y56" s="24"/>
       <c r="Z56" s="24"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>47</v>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -6050,23 +5956,29 @@
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
       <c r="O57" s="24"/>
-      <c r="P57" s="24">
-        <v>6.4669999999999996</v>
-      </c>
-      <c r="Q57" s="24">
-        <v>12.132</v>
-      </c>
-      <c r="R57" s="24">
-        <v>127.191</v>
-      </c>
-      <c r="S57" s="24">
-        <v>184.971</v>
-      </c>
-      <c r="T57" s="24">
-        <v>158</v>
-      </c>
-      <c r="U57" s="24">
-        <v>172</v>
+      <c r="P57" s="29">
+        <f t="shared" ref="P57:T57" si="88">SUM(P52:P56)</f>
+        <v>5856.8069999999989</v>
+      </c>
+      <c r="Q57" s="29">
+        <f t="shared" si="88"/>
+        <v>15254.380999999999</v>
+      </c>
+      <c r="R57" s="29">
+        <f t="shared" si="88"/>
+        <v>15074.217999999999</v>
+      </c>
+      <c r="S57" s="29">
+        <f t="shared" si="88"/>
+        <v>15202.861000000001</v>
+      </c>
+      <c r="T57" s="29">
+        <f t="shared" si="88"/>
+        <v>15893</v>
+      </c>
+      <c r="U57" s="29">
+        <f>SUM(U52:U56)</f>
+        <v>17083</v>
       </c>
       <c r="V57" s="24"/>
       <c r="W57" s="24"/>
@@ -6074,10 +5986,7 @@
       <c r="Y57" s="24"/>
       <c r="Z57" s="24"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
@@ -6091,33 +6000,21 @@
       <c r="M58" s="24"/>
       <c r="N58" s="24"/>
       <c r="O58" s="24"/>
-      <c r="P58" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="24">
-        <v>9060.3320000000003</v>
-      </c>
-      <c r="R58" s="24">
-        <v>8989.9979999999996</v>
-      </c>
-      <c r="S58" s="24">
-        <v>8853.9339999999993</v>
-      </c>
-      <c r="T58" s="24">
-        <v>9086</v>
-      </c>
-      <c r="U58" s="24">
-        <v>9396</v>
-      </c>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
       <c r="V58" s="24"/>
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
       <c r="Y58" s="24"/>
       <c r="Z58" s="24"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>49</v>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -6132,23 +6029,29 @@
       <c r="M59" s="24"/>
       <c r="N59" s="24"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="24">
-        <v>97.552000000000007</v>
-      </c>
-      <c r="Q59" s="24">
-        <v>95.546000000000006</v>
-      </c>
-      <c r="R59" s="24">
-        <v>98.998000000000005</v>
-      </c>
-      <c r="S59" s="24">
-        <v>96.662000000000006</v>
-      </c>
-      <c r="T59" s="24">
-        <v>97</v>
-      </c>
-      <c r="U59" s="24">
-        <v>95</v>
+      <c r="P59" s="29">
+        <f t="shared" ref="P59:T59" si="89">P51+P57</f>
+        <v>14326.028999999999</v>
+      </c>
+      <c r="Q59" s="29">
+        <f t="shared" si="89"/>
+        <v>24145.002999999997</v>
+      </c>
+      <c r="R59" s="29">
+        <f t="shared" si="89"/>
+        <v>30813.563999999998</v>
+      </c>
+      <c r="S59" s="29">
+        <f t="shared" si="89"/>
+        <v>28461.458000000002</v>
+      </c>
+      <c r="T59" s="29">
+        <f t="shared" si="89"/>
+        <v>28349</v>
+      </c>
+      <c r="U59" s="29">
+        <f>U51+U57</f>
+        <v>29747</v>
       </c>
       <c r="V59" s="24"/>
       <c r="W59" s="24"/>
@@ -6156,10 +6059,7 @@
       <c r="Y59" s="24"/>
       <c r="Z59" s="24"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -6173,33 +6073,21 @@
       <c r="M60" s="24"/>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="24">
-        <v>497.58</v>
-      </c>
-      <c r="Q60" s="24">
-        <v>761.32299999999998</v>
-      </c>
-      <c r="R60" s="24">
-        <v>821.93499999999995</v>
-      </c>
-      <c r="S60" s="24">
-        <v>796.46699999999998</v>
-      </c>
-      <c r="T60" s="24">
-        <v>769</v>
-      </c>
-      <c r="U60" s="24">
-        <v>849</v>
-      </c>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
       <c r="V60" s="24"/>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>51</v>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -6214,29 +6102,23 @@
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
       <c r="O61" s="24"/>
-      <c r="P61" s="29">
-        <f t="shared" ref="P61:T61" si="88">SUM(P56:P60)</f>
-        <v>5856.8069999999989</v>
-      </c>
-      <c r="Q61" s="29">
-        <f t="shared" si="88"/>
-        <v>15254.380999999999</v>
-      </c>
-      <c r="R61" s="29">
-        <f t="shared" si="88"/>
-        <v>15074.217999999999</v>
-      </c>
-      <c r="S61" s="29">
-        <f t="shared" si="88"/>
-        <v>15202.861000000001</v>
-      </c>
-      <c r="T61" s="29">
-        <f t="shared" si="88"/>
-        <v>15893</v>
-      </c>
-      <c r="U61" s="29">
-        <f>SUM(U56:U60)</f>
-        <v>17083</v>
+      <c r="P61" s="24">
+        <v>2644.143</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>2672.5569999999998</v>
+      </c>
+      <c r="R61" s="24">
+        <v>4823.3969999999999</v>
+      </c>
+      <c r="S61" s="24">
+        <v>4465.4269999999997</v>
+      </c>
+      <c r="T61" s="24">
+        <v>3794</v>
+      </c>
+      <c r="U61" s="24">
+        <v>3862</v>
       </c>
       <c r="V61" s="24"/>
       <c r="W61" s="24"/>
@@ -6244,7 +6126,10 @@
       <c r="Y61" s="24"/>
       <c r="Z61" s="24"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
@@ -6258,21 +6143,33 @@
       <c r="M62" s="24"/>
       <c r="N62" s="24"/>
       <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="24"/>
+      <c r="P62" s="24">
+        <v>2733.076</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>3041.7739999999999</v>
+      </c>
+      <c r="R62" s="24">
+        <v>3471.4589999999998</v>
+      </c>
+      <c r="S62" s="24">
+        <v>4244.9970000000003</v>
+      </c>
+      <c r="T62" s="24">
+        <v>4346</v>
+      </c>
+      <c r="U62" s="24">
+        <v>4870</v>
+      </c>
       <c r="V62" s="24"/>
       <c r="W62" s="24"/>
       <c r="X62" s="24"/>
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>45</v>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -6287,29 +6184,23 @@
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
       <c r="O63" s="24"/>
-      <c r="P63" s="29">
-        <f t="shared" ref="P63:T63" si="89">P55+P61</f>
-        <v>14326.028999999999</v>
-      </c>
-      <c r="Q63" s="29">
-        <f t="shared" si="89"/>
-        <v>24145.002999999997</v>
-      </c>
-      <c r="R63" s="29">
-        <f t="shared" si="89"/>
-        <v>30813.563999999998</v>
-      </c>
-      <c r="S63" s="29">
-        <f t="shared" si="89"/>
-        <v>28461.458000000002</v>
-      </c>
-      <c r="T63" s="29">
-        <f t="shared" si="89"/>
-        <v>28349</v>
-      </c>
-      <c r="U63" s="29">
-        <f>U55+U61</f>
-        <v>29747</v>
+      <c r="P63" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>1411.2159999999999</v>
+      </c>
+      <c r="R63" s="24">
+        <v>1677.605</v>
+      </c>
+      <c r="S63" s="24">
+        <v>1576.5609999999999</v>
+      </c>
+      <c r="T63" s="24">
+        <v>1610</v>
+      </c>
+      <c r="U63" s="24">
+        <v>1620</v>
       </c>
       <c r="V63" s="24"/>
       <c r="W63" s="24"/>
@@ -6317,7 +6208,10 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
@@ -6331,12 +6225,24 @@
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
+      <c r="P64" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="24">
+        <v>0</v>
+      </c>
+      <c r="R64" s="24">
+        <v>749.68399999999997</v>
+      </c>
+      <c r="S64" s="24">
+        <v>0</v>
+      </c>
+      <c r="T64" s="24">
+        <v>500</v>
+      </c>
+      <c r="U64" s="24">
+        <v>0</v>
+      </c>
       <c r="V64" s="24"/>
       <c r="W64" s="24"/>
       <c r="X64" s="24"/>
@@ -6345,7 +6251,7 @@
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -6361,22 +6267,22 @@
       <c r="N65" s="24"/>
       <c r="O65" s="24"/>
       <c r="P65" s="24">
-        <v>2644.143</v>
+        <v>154.155</v>
       </c>
       <c r="Q65" s="24">
-        <v>2672.5569999999998</v>
+        <v>24.7</v>
       </c>
       <c r="R65" s="24">
-        <v>4823.3969999999999</v>
+        <v>81.522999999999996</v>
       </c>
       <c r="S65" s="24">
-        <v>4465.4269999999997</v>
+        <v>181.155</v>
       </c>
       <c r="T65" s="24">
-        <v>3794</v>
+        <v>55</v>
       </c>
       <c r="U65" s="24">
-        <v>3862</v>
+        <v>99</v>
       </c>
       <c r="V65" s="24"/>
       <c r="W65" s="24"/>
@@ -6385,8 +6291,8 @@
       <c r="Z65" s="24"/>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>53</v>
+      <c r="B66" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
@@ -6401,23 +6307,29 @@
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="24">
-        <v>2733.076</v>
-      </c>
-      <c r="Q66" s="24">
-        <v>3041.7739999999999</v>
-      </c>
-      <c r="R66" s="24">
-        <v>3471.4589999999998</v>
-      </c>
-      <c r="S66" s="24">
-        <v>4244.9970000000003</v>
-      </c>
-      <c r="T66" s="24">
-        <v>4346</v>
-      </c>
-      <c r="U66" s="24">
-        <v>4870</v>
+      <c r="P66" s="29">
+        <f t="shared" ref="P66:T66" si="90">SUM(P61:P65)</f>
+        <v>5531.3739999999998</v>
+      </c>
+      <c r="Q66" s="29">
+        <f t="shared" si="90"/>
+        <v>7150.2470000000003</v>
+      </c>
+      <c r="R66" s="29">
+        <f t="shared" si="90"/>
+        <v>10803.667999999998</v>
+      </c>
+      <c r="S66" s="29">
+        <f t="shared" si="90"/>
+        <v>10468.14</v>
+      </c>
+      <c r="T66" s="29">
+        <f t="shared" si="90"/>
+        <v>10305</v>
+      </c>
+      <c r="U66" s="29">
+        <f>SUM(U61:U65)</f>
+        <v>10451</v>
       </c>
       <c r="V66" s="24"/>
       <c r="W66" s="24"/>
@@ -6427,7 +6339,7 @@
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
@@ -6443,22 +6355,22 @@
       <c r="N67" s="24"/>
       <c r="O67" s="24"/>
       <c r="P67" s="24">
-        <v>0</v>
+        <v>1354.242</v>
       </c>
       <c r="Q67" s="24">
-        <v>1411.2159999999999</v>
+        <v>851.11599999999999</v>
       </c>
       <c r="R67" s="24">
-        <v>1677.605</v>
+        <v>1063.902</v>
       </c>
       <c r="S67" s="24">
-        <v>1576.5609999999999</v>
+        <v>1015.72</v>
       </c>
       <c r="T67" s="24">
-        <v>1610</v>
+        <v>919</v>
       </c>
       <c r="U67" s="24">
-        <v>1620</v>
+        <v>924</v>
       </c>
       <c r="V67" s="24"/>
       <c r="W67" s="24"/>
@@ -6468,7 +6380,7 @@
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
@@ -6484,22 +6396,22 @@
       <c r="N68" s="24"/>
       <c r="O68" s="24"/>
       <c r="P68" s="24">
-        <v>0</v>
+        <v>158.191</v>
       </c>
       <c r="Q68" s="24">
-        <v>0</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="R68" s="24">
-        <v>749.68399999999997</v>
+        <v>37.164000000000001</v>
       </c>
       <c r="S68" s="24">
-        <v>0</v>
+        <v>44.174999999999997</v>
       </c>
       <c r="T68" s="24">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="U68" s="24">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="V68" s="24"/>
       <c r="W68" s="24"/>
@@ -6509,7 +6421,7 @@
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
@@ -6525,22 +6437,22 @@
       <c r="N69" s="24"/>
       <c r="O69" s="24"/>
       <c r="P69" s="24">
-        <v>154.155</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="24">
-        <v>24.7</v>
+        <v>7816.6329999999998</v>
       </c>
       <c r="R69" s="24">
-        <v>81.522999999999996</v>
+        <v>7743.2160000000003</v>
       </c>
       <c r="S69" s="24">
-        <v>181.155</v>
+        <v>7575.59</v>
       </c>
       <c r="T69" s="24">
-        <v>55</v>
+        <v>7775</v>
       </c>
       <c r="U69" s="24">
-        <v>99</v>
+        <v>8060</v>
       </c>
       <c r="V69" s="24"/>
       <c r="W69" s="24"/>
@@ -6549,8 +6461,8 @@
       <c r="Z69" s="24"/>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>57</v>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
@@ -6565,29 +6477,23 @@
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
-      <c r="P70" s="29">
-        <f t="shared" ref="P70:T70" si="90">SUM(P65:P69)</f>
-        <v>5531.3739999999998</v>
-      </c>
-      <c r="Q70" s="29">
-        <f t="shared" si="90"/>
-        <v>7150.2470000000003</v>
-      </c>
-      <c r="R70" s="29">
-        <f t="shared" si="90"/>
-        <v>10803.667999999998</v>
-      </c>
-      <c r="S70" s="29">
-        <f t="shared" si="90"/>
-        <v>10468.14</v>
-      </c>
-      <c r="T70" s="29">
-        <f t="shared" si="90"/>
-        <v>10305</v>
-      </c>
-      <c r="U70" s="29">
-        <f>SUM(U65:U69)</f>
-        <v>10451</v>
+      <c r="P70" s="24">
+        <v>2233.616</v>
+      </c>
+      <c r="Q70" s="24">
+        <v>2236.625</v>
+      </c>
+      <c r="R70" s="24">
+        <v>5332.9210000000003</v>
+      </c>
+      <c r="S70" s="24">
+        <v>3354.8409999999999</v>
+      </c>
+      <c r="T70" s="24">
+        <v>2859</v>
+      </c>
+      <c r="U70" s="24">
+        <v>2862</v>
       </c>
       <c r="V70" s="24"/>
       <c r="W70" s="24"/>
@@ -6596,8 +6502,8 @@
       <c r="Z70" s="24"/>
     </row>
     <row r="71" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>58</v>
+      <c r="B71" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
@@ -6612,23 +6518,29 @@
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
-      <c r="P71" s="24">
-        <v>1354.242</v>
-      </c>
-      <c r="Q71" s="24">
-        <v>851.11599999999999</v>
-      </c>
-      <c r="R71" s="24">
-        <v>1063.902</v>
-      </c>
-      <c r="S71" s="24">
-        <v>1015.72</v>
-      </c>
-      <c r="T71" s="24">
-        <v>919</v>
-      </c>
-      <c r="U71" s="24">
-        <v>924</v>
+      <c r="P71" s="29">
+        <f t="shared" ref="P71:T71" si="91">SUM(P67:P70)</f>
+        <v>3746.049</v>
+      </c>
+      <c r="Q71" s="29">
+        <f t="shared" si="91"/>
+        <v>11046.544</v>
+      </c>
+      <c r="R71" s="29">
+        <f t="shared" si="91"/>
+        <v>14177.203000000001</v>
+      </c>
+      <c r="S71" s="29">
+        <f t="shared" si="91"/>
+        <v>11990.326000000001</v>
+      </c>
+      <c r="T71" s="29">
+        <f t="shared" si="91"/>
+        <v>11680</v>
+      </c>
+      <c r="U71" s="29">
+        <f>SUM(U67:U70)</f>
+        <v>11994</v>
       </c>
       <c r="V71" s="24"/>
       <c r="W71" s="24"/>
@@ -6637,9 +6549,6 @@
       <c r="Z71" s="24"/>
     </row>
     <row r="72" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
@@ -6653,24 +6562,12 @@
       <c r="M72" s="24"/>
       <c r="N72" s="24"/>
       <c r="O72" s="24"/>
-      <c r="P72" s="24">
-        <v>158.191</v>
-      </c>
-      <c r="Q72" s="24">
-        <v>142.16999999999999</v>
-      </c>
-      <c r="R72" s="24">
-        <v>37.164000000000001</v>
-      </c>
-      <c r="S72" s="24">
-        <v>44.174999999999997</v>
-      </c>
-      <c r="T72" s="24">
-        <v>127</v>
-      </c>
-      <c r="U72" s="24">
-        <v>148</v>
-      </c>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
       <c r="X72" s="24"/>
@@ -6678,8 +6575,8 @@
       <c r="Z72" s="24"/>
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>59</v>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -6694,23 +6591,29 @@
       <c r="M73" s="24"/>
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
-      <c r="P73" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="24">
-        <v>7816.6329999999998</v>
-      </c>
-      <c r="R73" s="24">
-        <v>7743.2160000000003</v>
-      </c>
-      <c r="S73" s="24">
-        <v>7575.59</v>
-      </c>
-      <c r="T73" s="24">
-        <v>7775</v>
-      </c>
-      <c r="U73" s="24">
-        <v>8060</v>
+      <c r="P73" s="29">
+        <f t="shared" ref="P73:T73" si="92">P66+P71</f>
+        <v>9277.4229999999989</v>
+      </c>
+      <c r="Q73" s="29">
+        <f t="shared" si="92"/>
+        <v>18196.791000000001</v>
+      </c>
+      <c r="R73" s="29">
+        <f t="shared" si="92"/>
+        <v>24980.870999999999</v>
+      </c>
+      <c r="S73" s="29">
+        <f t="shared" si="92"/>
+        <v>22458.466</v>
+      </c>
+      <c r="T73" s="29">
+        <f t="shared" si="92"/>
+        <v>21985</v>
+      </c>
+      <c r="U73" s="29">
+        <f>U66+U71</f>
+        <v>22445</v>
       </c>
       <c r="V73" s="24"/>
       <c r="W73" s="24"/>
@@ -6719,9 +6622,6 @@
       <c r="Z73" s="24"/>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
@@ -6735,24 +6635,12 @@
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
       <c r="O74" s="24"/>
-      <c r="P74" s="24">
-        <v>2233.616</v>
-      </c>
-      <c r="Q74" s="24">
-        <v>2236.625</v>
-      </c>
-      <c r="R74" s="24">
-        <v>5332.9210000000003</v>
-      </c>
-      <c r="S74" s="24">
-        <v>3354.8409999999999</v>
-      </c>
-      <c r="T74" s="24">
-        <v>2859</v>
-      </c>
-      <c r="U74" s="24">
-        <v>2862</v>
-      </c>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
       <c r="V74" s="24"/>
       <c r="W74" s="24"/>
       <c r="X74" s="24"/>
@@ -6760,8 +6648,8 @@
       <c r="Z74" s="24"/>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>61</v>
+      <c r="B75" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -6776,29 +6664,23 @@
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
       <c r="O75" s="24"/>
-      <c r="P75" s="29">
-        <f t="shared" ref="P75:T75" si="91">SUM(P71:P74)</f>
-        <v>3746.049</v>
-      </c>
-      <c r="Q75" s="29">
-        <f t="shared" si="91"/>
-        <v>11046.544</v>
-      </c>
-      <c r="R75" s="29">
-        <f t="shared" si="91"/>
-        <v>14177.203000000001</v>
-      </c>
-      <c r="S75" s="29">
-        <f t="shared" si="91"/>
-        <v>11990.326000000001</v>
-      </c>
-      <c r="T75" s="29">
-        <f t="shared" si="91"/>
-        <v>11680</v>
-      </c>
-      <c r="U75" s="29">
-        <f>SUM(U71:U74)</f>
-        <v>11994</v>
+      <c r="P75" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="24">
+        <v>0</v>
+      </c>
+      <c r="R75" s="24">
+        <v>0</v>
+      </c>
+      <c r="S75" s="24">
+        <v>0</v>
+      </c>
+      <c r="T75" s="24">
+        <v>0</v>
+      </c>
+      <c r="U75" s="24">
+        <v>0</v>
       </c>
       <c r="V75" s="24"/>
       <c r="W75" s="24"/>
@@ -6807,6 +6689,9 @@
       <c r="Z75" s="24"/>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -6820,12 +6705,24 @@
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
       <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
+      <c r="P76" s="24">
+        <v>1217.183</v>
+      </c>
+      <c r="Q76" s="24">
+        <v>1199.0999999999999</v>
+      </c>
+      <c r="R76" s="24">
+        <v>1204.6980000000001</v>
+      </c>
+      <c r="S76" s="24">
+        <v>1181.1890000000001</v>
+      </c>
+      <c r="T76" s="24">
+        <v>1155</v>
+      </c>
+      <c r="U76" s="24">
+        <v>1134</v>
+      </c>
       <c r="V76" s="24"/>
       <c r="W76" s="24"/>
       <c r="X76" s="24"/>
@@ -6833,8 +6730,8 @@
       <c r="Z76" s="24"/>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>62</v>
+      <c r="B77" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
@@ -6849,29 +6746,23 @@
       <c r="M77" s="24"/>
       <c r="N77" s="24"/>
       <c r="O77" s="24"/>
-      <c r="P77" s="29">
-        <f t="shared" ref="P77:T77" si="92">P70+P75</f>
-        <v>9277.4229999999989</v>
-      </c>
-      <c r="Q77" s="29">
-        <f t="shared" si="92"/>
-        <v>18196.791000000001</v>
-      </c>
-      <c r="R77" s="29">
-        <f t="shared" si="92"/>
-        <v>24980.870999999999</v>
-      </c>
-      <c r="S77" s="29">
-        <f t="shared" si="92"/>
-        <v>22458.466</v>
-      </c>
-      <c r="T77" s="29">
-        <f t="shared" si="92"/>
-        <v>21985</v>
-      </c>
-      <c r="U77" s="29">
-        <f>U70+U75</f>
-        <v>22445</v>
+      <c r="P77" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="24">
+        <v>0</v>
+      </c>
+      <c r="R77" s="24">
+        <v>260.51499999999999</v>
+      </c>
+      <c r="S77" s="24">
+        <v>0</v>
+      </c>
+      <c r="T77" s="24">
+        <v>0</v>
+      </c>
+      <c r="U77" s="24">
+        <v>0</v>
       </c>
       <c r="V77" s="24"/>
       <c r="W77" s="24"/>
@@ -6880,6 +6771,9 @@
       <c r="Z77" s="24"/>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
@@ -6893,12 +6787,24 @@
       <c r="M78" s="24"/>
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
+      <c r="P78" s="24">
+        <v>-630.32100000000003</v>
+      </c>
+      <c r="Q78" s="24">
+        <v>-673.17100000000005</v>
+      </c>
+      <c r="R78" s="24">
+        <v>-606.07100000000003</v>
+      </c>
+      <c r="S78" s="24">
+        <v>-687.15</v>
+      </c>
+      <c r="T78" s="24">
+        <v>-606</v>
+      </c>
+      <c r="U78" s="24">
+        <v>-532</v>
+      </c>
       <c r="V78" s="24"/>
       <c r="W78" s="24"/>
       <c r="X78" s="24"/>
@@ -6907,7 +6813,7 @@
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
@@ -6923,22 +6829,22 @@
       <c r="N79" s="24"/>
       <c r="O79" s="24"/>
       <c r="P79" s="24">
-        <v>0</v>
+        <v>4461.7439999999997</v>
       </c>
       <c r="Q79" s="24">
-        <v>0</v>
+        <v>5422.2830000000004</v>
       </c>
       <c r="R79" s="24">
-        <v>0</v>
+        <v>4973.5420000000004</v>
       </c>
       <c r="S79" s="24">
-        <v>0</v>
+        <v>5508.9530000000004</v>
       </c>
       <c r="T79" s="24">
-        <v>0</v>
+        <v>5815</v>
       </c>
       <c r="U79" s="24">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="V79" s="24"/>
       <c r="W79" s="24"/>
@@ -6947,8 +6853,8 @@
       <c r="Z79" s="24"/>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>64</v>
+      <c r="B80" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -6963,23 +6869,29 @@
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
       <c r="O80" s="24"/>
-      <c r="P80" s="24">
-        <v>1217.183</v>
-      </c>
-      <c r="Q80" s="24">
-        <v>1199.0999999999999</v>
-      </c>
-      <c r="R80" s="24">
-        <v>1204.6980000000001</v>
-      </c>
-      <c r="S80" s="24">
-        <v>1181.1890000000001</v>
-      </c>
-      <c r="T80" s="24">
-        <v>1155</v>
-      </c>
-      <c r="U80" s="24">
-        <v>1134</v>
+      <c r="P80" s="29">
+        <f t="shared" ref="P80:T80" si="93">SUM(P75:P79)</f>
+        <v>5048.6059999999998</v>
+      </c>
+      <c r="Q80" s="29">
+        <f t="shared" si="93"/>
+        <v>5948.2120000000004</v>
+      </c>
+      <c r="R80" s="29">
+        <f t="shared" si="93"/>
+        <v>5832.6840000000002</v>
+      </c>
+      <c r="S80" s="29">
+        <f t="shared" si="93"/>
+        <v>6002.9920000000002</v>
+      </c>
+      <c r="T80" s="29">
+        <f t="shared" si="93"/>
+        <v>6364</v>
+      </c>
+      <c r="U80" s="29">
+        <f>SUM(U75:U79)</f>
+        <v>7302</v>
       </c>
       <c r="V80" s="24"/>
       <c r="W80" s="24"/>
@@ -6988,9 +6900,6 @@
       <c r="Z80" s="24"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -7004,24 +6913,12 @@
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
       <c r="O81" s="24"/>
-      <c r="P81" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="24">
-        <v>0</v>
-      </c>
-      <c r="R81" s="24">
-        <v>260.51499999999999</v>
-      </c>
-      <c r="S81" s="24">
-        <v>0</v>
-      </c>
-      <c r="T81" s="24">
-        <v>0</v>
-      </c>
-      <c r="U81" s="24">
-        <v>0</v>
-      </c>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="24"/>
       <c r="V81" s="24"/>
       <c r="W81" s="24"/>
       <c r="X81" s="24"/>
@@ -7029,8 +6926,8 @@
       <c r="Z81" s="24"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B82" s="2" t="s">
-        <v>66</v>
+      <c r="B82" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
@@ -7045,23 +6942,29 @@
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
       <c r="O82" s="24"/>
-      <c r="P82" s="24">
-        <v>-630.32100000000003</v>
-      </c>
-      <c r="Q82" s="24">
-        <v>-673.17100000000005</v>
-      </c>
-      <c r="R82" s="24">
-        <v>-606.07100000000003</v>
-      </c>
-      <c r="S82" s="24">
-        <v>-687.15</v>
-      </c>
-      <c r="T82" s="24">
-        <v>-606</v>
-      </c>
-      <c r="U82" s="24">
-        <v>-532</v>
+      <c r="P82" s="29">
+        <f t="shared" ref="P82:T82" si="94">P73+P80</f>
+        <v>14326.028999999999</v>
+      </c>
+      <c r="Q82" s="29">
+        <f t="shared" si="94"/>
+        <v>24145.003000000001</v>
+      </c>
+      <c r="R82" s="29">
+        <f t="shared" si="94"/>
+        <v>30813.555</v>
+      </c>
+      <c r="S82" s="29">
+        <f t="shared" si="94"/>
+        <v>28461.457999999999</v>
+      </c>
+      <c r="T82" s="29">
+        <f t="shared" si="94"/>
+        <v>28349</v>
+      </c>
+      <c r="U82" s="29">
+        <f>U73+U80</f>
+        <v>29747</v>
       </c>
       <c r="V82" s="24"/>
       <c r="W82" s="24"/>
@@ -7070,9 +6973,6 @@
       <c r="Z82" s="24"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B83" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
@@ -7086,24 +6986,12 @@
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
       <c r="O83" s="24"/>
-      <c r="P83" s="24">
-        <v>4461.7439999999997</v>
-      </c>
-      <c r="Q83" s="24">
-        <v>5422.2830000000004</v>
-      </c>
-      <c r="R83" s="24">
-        <v>4973.5420000000004</v>
-      </c>
-      <c r="S83" s="24">
-        <v>5508.9530000000004</v>
-      </c>
-      <c r="T83" s="24">
-        <v>5815</v>
-      </c>
-      <c r="U83" s="24">
-        <v>6700</v>
-      </c>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
       <c r="V83" s="24"/>
       <c r="W83" s="24"/>
       <c r="X83" s="24"/>
@@ -7111,9 +6999,6 @@
       <c r="Z83" s="24"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
@@ -7127,30 +7012,12 @@
       <c r="M84" s="24"/>
       <c r="N84" s="24"/>
       <c r="O84" s="24"/>
-      <c r="P84" s="29">
-        <f t="shared" ref="P84:T84" si="93">SUM(P79:P83)</f>
-        <v>5048.6059999999998</v>
-      </c>
-      <c r="Q84" s="29">
-        <f t="shared" si="93"/>
-        <v>5948.2120000000004</v>
-      </c>
-      <c r="R84" s="29">
-        <f t="shared" si="93"/>
-        <v>5832.6840000000002</v>
-      </c>
-      <c r="S84" s="29">
-        <f t="shared" si="93"/>
-        <v>6002.9920000000002</v>
-      </c>
-      <c r="T84" s="29">
-        <f t="shared" si="93"/>
-        <v>6364</v>
-      </c>
-      <c r="U84" s="29">
-        <f>SUM(U79:U83)</f>
-        <v>7302</v>
-      </c>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
       <c r="V84" s="24"/>
       <c r="W84" s="24"/>
       <c r="X84" s="24"/>
@@ -7158,6 +7025,12 @@
       <c r="Z84" s="24"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
@@ -7184,8 +7057,8 @@
       <c r="Z85" s="24"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>69</v>
+      <c r="B86" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
@@ -7200,29 +7073,29 @@
       <c r="M86" s="24"/>
       <c r="N86" s="24"/>
       <c r="O86" s="24"/>
-      <c r="P86" s="29">
-        <f t="shared" ref="P86:T86" si="94">P77+P84</f>
-        <v>14326.028999999999</v>
-      </c>
-      <c r="Q86" s="29">
-        <f t="shared" si="94"/>
-        <v>24145.003000000001</v>
-      </c>
-      <c r="R86" s="29">
-        <f t="shared" si="94"/>
-        <v>30813.555</v>
-      </c>
-      <c r="S86" s="29">
-        <f t="shared" si="94"/>
-        <v>28461.457999999999</v>
-      </c>
-      <c r="T86" s="29">
-        <f t="shared" si="94"/>
-        <v>28349</v>
-      </c>
-      <c r="U86" s="29">
-        <f>U77+U84</f>
-        <v>29747</v>
+      <c r="P86" s="24">
+        <f t="shared" ref="P86:U86" si="95">P28</f>
+        <v>3059.8080000000014</v>
+      </c>
+      <c r="Q86" s="24">
+        <f t="shared" si="95"/>
+        <v>3272.2160000000013</v>
+      </c>
+      <c r="R86" s="24">
+        <f t="shared" si="95"/>
+        <v>90.508000000000919</v>
+      </c>
+      <c r="S86" s="24">
+        <f t="shared" si="95"/>
+        <v>3283</v>
+      </c>
+      <c r="T86" s="24">
+        <f t="shared" si="95"/>
+        <v>3498</v>
+      </c>
+      <c r="U86" s="24">
+        <f t="shared" si="95"/>
+        <v>4474</v>
       </c>
       <c r="V86" s="24"/>
       <c r="W86" s="24"/>
@@ -7231,6 +7104,9 @@
       <c r="Z86" s="24"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
@@ -7244,12 +7120,24 @@
       <c r="M87" s="24"/>
       <c r="N87" s="24"/>
       <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
+      <c r="P87" s="24">
+        <v>819.65499999999997</v>
+      </c>
+      <c r="Q87" s="24">
+        <v>867.303</v>
+      </c>
+      <c r="R87" s="24">
+        <v>870.75800000000004</v>
+      </c>
+      <c r="S87" s="24">
+        <v>868</v>
+      </c>
+      <c r="T87" s="24">
+        <v>887</v>
+      </c>
+      <c r="U87" s="24">
+        <v>964</v>
+      </c>
       <c r="V87" s="24"/>
       <c r="W87" s="24"/>
       <c r="X87" s="24"/>
@@ -7257,6 +7145,9 @@
       <c r="Z87" s="24"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
@@ -7270,12 +7161,24 @@
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
       <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
-      <c r="U88" s="24"/>
+      <c r="P88" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="24">
+        <v>0</v>
+      </c>
+      <c r="R88" s="24">
+        <v>0</v>
+      </c>
+      <c r="S88" s="24">
+        <v>0</v>
+      </c>
+      <c r="T88" s="24">
+        <v>218</v>
+      </c>
+      <c r="U88" s="24">
+        <v>0</v>
+      </c>
       <c r="V88" s="24"/>
       <c r="W88" s="24"/>
       <c r="X88" s="24"/>
@@ -7283,11 +7186,8 @@
       <c r="Z88" s="24"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>70</v>
+      <c r="B89" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
@@ -7302,12 +7202,24 @@
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
       <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
-      <c r="U89" s="24"/>
+      <c r="P89" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="24">
+        <v>0</v>
+      </c>
+      <c r="R89" s="24">
+        <v>312.233</v>
+      </c>
+      <c r="S89" s="24">
+        <v>242</v>
+      </c>
+      <c r="T89" s="24">
+        <v>0</v>
+      </c>
+      <c r="U89" s="24">
+        <v>0</v>
+      </c>
       <c r="V89" s="24"/>
       <c r="W89" s="24"/>
       <c r="X89" s="24"/>
@@ -7316,7 +7228,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
@@ -7332,28 +7244,22 @@
       <c r="N90" s="24"/>
       <c r="O90" s="24"/>
       <c r="P90" s="24">
-        <f t="shared" ref="P90:U90" si="95">P28</f>
-        <v>3059.8080000000014</v>
+        <v>17.652999999999999</v>
       </c>
       <c r="Q90" s="24">
-        <f t="shared" si="95"/>
-        <v>3272.2160000000013</v>
+        <v>16.053999999999998</v>
       </c>
       <c r="R90" s="24">
-        <f t="shared" si="95"/>
-        <v>90.508000000000919</v>
+        <v>83.793999999999997</v>
       </c>
       <c r="S90" s="24">
-        <f t="shared" si="95"/>
-        <v>3283</v>
+        <v>9</v>
       </c>
       <c r="T90" s="24">
-        <f t="shared" si="95"/>
-        <v>3498</v>
+        <v>23</v>
       </c>
       <c r="U90" s="24">
-        <f t="shared" si="95"/>
-        <v>4474</v>
+        <v>61</v>
       </c>
       <c r="V90" s="24"/>
       <c r="W90" s="24"/>
@@ -7363,7 +7269,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
@@ -7379,22 +7285,22 @@
       <c r="N91" s="24"/>
       <c r="O91" s="24"/>
       <c r="P91" s="24">
-        <v>819.65499999999997</v>
+        <v>-88.593999999999994</v>
       </c>
       <c r="Q91" s="24">
-        <v>867.303</v>
+        <v>-6.2329999999999997</v>
       </c>
       <c r="R91" s="24">
-        <v>870.75800000000004</v>
+        <v>-230.69</v>
       </c>
       <c r="S91" s="24">
-        <v>868</v>
+        <v>-44</v>
       </c>
       <c r="T91" s="24">
-        <v>887</v>
+        <v>64</v>
       </c>
       <c r="U91" s="24">
-        <v>964</v>
+        <v>-7</v>
       </c>
       <c r="V91" s="24"/>
       <c r="W91" s="24"/>
@@ -7404,7 +7310,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
@@ -7420,22 +7326,22 @@
       <c r="N92" s="24"/>
       <c r="O92" s="24"/>
       <c r="P92" s="24">
-        <v>0</v>
+        <v>103.557</v>
       </c>
       <c r="Q92" s="24">
-        <v>0</v>
+        <v>124.95699999999999</v>
       </c>
       <c r="R92" s="24">
-        <v>0</v>
+        <v>58.518999999999998</v>
       </c>
       <c r="S92" s="24">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="T92" s="24">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="U92" s="24">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="V92" s="24"/>
       <c r="W92" s="24"/>
@@ -7445,7 +7351,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
@@ -7461,16 +7367,16 @@
       <c r="N93" s="24"/>
       <c r="O93" s="24"/>
       <c r="P93" s="24">
-        <v>0</v>
+        <v>36.122</v>
       </c>
       <c r="Q93" s="24">
         <v>0</v>
       </c>
       <c r="R93" s="24">
-        <v>312.233</v>
+        <v>0</v>
       </c>
       <c r="S93" s="24">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="T93" s="24">
         <v>0</v>
@@ -7486,7 +7392,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
@@ -7501,24 +7407,12 @@
       <c r="M94" s="24"/>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
-      <c r="P94" s="24">
-        <v>17.652999999999999</v>
-      </c>
-      <c r="Q94" s="24">
-        <v>16.053999999999998</v>
-      </c>
-      <c r="R94" s="24">
-        <v>83.793999999999997</v>
-      </c>
-      <c r="S94" s="24">
-        <v>9</v>
-      </c>
-      <c r="T94" s="24">
-        <v>23</v>
-      </c>
-      <c r="U94" s="24">
-        <v>61</v>
-      </c>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
       <c r="V94" s="24"/>
       <c r="W94" s="24"/>
       <c r="X94" s="24"/>
@@ -7527,7 +7421,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
@@ -7543,22 +7437,22 @@
       <c r="N95" s="24"/>
       <c r="O95" s="24"/>
       <c r="P95" s="24">
-        <v>-88.593999999999994</v>
+        <v>-23.532</v>
       </c>
       <c r="Q95" s="24">
-        <v>-6.2329999999999997</v>
+        <v>-42.997999999999998</v>
       </c>
       <c r="R95" s="24">
-        <v>-230.69</v>
+        <v>-71.090999999999994</v>
       </c>
       <c r="S95" s="24">
-        <v>-44</v>
+        <v>-61</v>
       </c>
       <c r="T95" s="24">
-        <v>64</v>
+        <v>-51</v>
       </c>
       <c r="U95" s="24">
-        <v>-7</v>
+        <v>37</v>
       </c>
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
@@ -7568,7 +7462,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
@@ -7584,22 +7478,22 @@
       <c r="N96" s="24"/>
       <c r="O96" s="24"/>
       <c r="P96" s="24">
-        <v>103.557</v>
+        <v>-465.42899999999997</v>
       </c>
       <c r="Q96" s="24">
-        <v>124.95699999999999</v>
+        <v>-296.541</v>
       </c>
       <c r="R96" s="24">
-        <v>58.518999999999998</v>
+        <v>588.75599999999997</v>
       </c>
       <c r="S96" s="24">
-        <v>189</v>
+        <v>-1658</v>
       </c>
       <c r="T96" s="24">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="U96" s="24">
-        <v>160</v>
+        <v>-145</v>
       </c>
       <c r="V96" s="24"/>
       <c r="W96" s="24"/>
@@ -7609,7 +7503,7 @@
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
@@ -7625,22 +7519,22 @@
       <c r="N97" s="24"/>
       <c r="O97" s="24"/>
       <c r="P97" s="24">
-        <v>36.122</v>
+        <v>15.452</v>
       </c>
       <c r="Q97" s="24">
-        <v>0</v>
+        <v>-34.177</v>
       </c>
       <c r="R97" s="24">
-        <v>0</v>
+        <v>10.707000000000001</v>
       </c>
       <c r="S97" s="24">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="T97" s="24">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="U97" s="24">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V97" s="24"/>
       <c r="W97" s="24"/>
@@ -7650,7 +7544,7 @@
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
@@ -7665,12 +7559,24 @@
       <c r="M98" s="24"/>
       <c r="N98" s="24"/>
       <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="24"/>
-      <c r="T98" s="24"/>
-      <c r="U98" s="24"/>
+      <c r="P98" s="24">
+        <v>220.89</v>
+      </c>
+      <c r="Q98" s="24">
+        <v>-17.084</v>
+      </c>
+      <c r="R98" s="24">
+        <v>-57.45</v>
+      </c>
+      <c r="S98" s="24">
+        <v>33</v>
+      </c>
+      <c r="T98" s="24">
+        <v>-73</v>
+      </c>
+      <c r="U98" s="24">
+        <v>-40</v>
+      </c>
       <c r="V98" s="24"/>
       <c r="W98" s="24"/>
       <c r="X98" s="24"/>
@@ -7679,7 +7585,7 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
@@ -7695,22 +7601,22 @@
       <c r="N99" s="24"/>
       <c r="O99" s="24"/>
       <c r="P99" s="24">
-        <v>-23.532</v>
+        <v>198.21199999999999</v>
       </c>
       <c r="Q99" s="24">
-        <v>-42.997999999999998</v>
+        <v>29.338000000000001</v>
       </c>
       <c r="R99" s="24">
-        <v>-71.090999999999994</v>
+        <v>2111.1889999999999</v>
       </c>
       <c r="S99" s="24">
-        <v>-61</v>
+        <v>-338</v>
       </c>
       <c r="T99" s="24">
-        <v>-51</v>
+        <v>-600</v>
       </c>
       <c r="U99" s="24">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="V99" s="24"/>
       <c r="W99" s="24"/>
@@ -7720,7 +7626,7 @@
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
@@ -7736,22 +7642,22 @@
       <c r="N100" s="24"/>
       <c r="O100" s="24"/>
       <c r="P100" s="24">
-        <v>-465.42899999999997</v>
+        <v>169.41800000000001</v>
       </c>
       <c r="Q100" s="24">
-        <v>-296.541</v>
+        <v>345.745</v>
       </c>
       <c r="R100" s="24">
-        <v>588.75599999999997</v>
+        <v>584.50199999999995</v>
       </c>
       <c r="S100" s="24">
-        <v>-1658</v>
+        <v>659</v>
       </c>
       <c r="T100" s="24">
-        <v>58</v>
+        <v>-23</v>
       </c>
       <c r="U100" s="24">
-        <v>-145</v>
+        <v>443</v>
       </c>
       <c r="V100" s="24"/>
       <c r="W100" s="24"/>
@@ -7761,7 +7667,7 @@
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
@@ -7777,22 +7683,22 @@
       <c r="N101" s="24"/>
       <c r="O101" s="24"/>
       <c r="P101" s="24">
-        <v>15.452</v>
+        <v>40.965000000000003</v>
       </c>
       <c r="Q101" s="24">
-        <v>-34.177</v>
+        <v>-128.34200000000001</v>
       </c>
       <c r="R101" s="24">
-        <v>10.707000000000001</v>
+        <v>52.790999999999997</v>
       </c>
       <c r="S101" s="24">
-        <v>-78</v>
+        <v>100</v>
       </c>
       <c r="T101" s="24">
-        <v>-5</v>
+        <v>-126</v>
       </c>
       <c r="U101" s="24">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="V101" s="24"/>
       <c r="W101" s="24"/>
@@ -7802,7 +7708,7 @@
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
@@ -7818,22 +7724,22 @@
       <c r="N102" s="24"/>
       <c r="O102" s="24"/>
       <c r="P102" s="24">
-        <v>220.89</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="24">
-        <v>-17.084</v>
+        <v>29.617000000000001</v>
       </c>
       <c r="R102" s="24">
-        <v>-57.45</v>
+        <v>200.24299999999999</v>
       </c>
       <c r="S102" s="24">
-        <v>33</v>
+        <v>-129</v>
       </c>
       <c r="T102" s="24">
-        <v>-73</v>
+        <v>-1</v>
       </c>
       <c r="U102" s="24">
-        <v>-40</v>
+        <v>-18</v>
       </c>
       <c r="V102" s="24"/>
       <c r="W102" s="24"/>
@@ -7843,7 +7749,7 @@
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
@@ -7859,22 +7765,22 @@
       <c r="N103" s="24"/>
       <c r="O103" s="24"/>
       <c r="P103" s="24">
-        <v>198.21199999999999</v>
+        <v>-15.708</v>
       </c>
       <c r="Q103" s="24">
-        <v>29.338000000000001</v>
+        <v>-93.292000000000002</v>
       </c>
       <c r="R103" s="24">
-        <v>2111.1889999999999</v>
+        <v>-42.841999999999999</v>
       </c>
       <c r="S103" s="24">
-        <v>-338</v>
+        <v>-18</v>
       </c>
       <c r="T103" s="24">
-        <v>-600</v>
+        <v>93</v>
       </c>
       <c r="U103" s="24">
-        <v>64</v>
+        <v>-42</v>
       </c>
       <c r="V103" s="24"/>
       <c r="W103" s="24"/>
@@ -7884,7 +7790,7 @@
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
@@ -7900,22 +7806,28 @@
       <c r="N104" s="24"/>
       <c r="O104" s="24"/>
       <c r="P104" s="24">
-        <v>169.41800000000001</v>
+        <f t="shared" ref="P104:R104" si="96">SUM(P95:P103)</f>
+        <v>140.26800000000003</v>
       </c>
       <c r="Q104" s="24">
-        <v>345.745</v>
+        <f t="shared" si="96"/>
+        <v>-207.73399999999998</v>
       </c>
       <c r="R104" s="24">
-        <v>584.50199999999995</v>
+        <f t="shared" si="96"/>
+        <v>3376.8049999999998</v>
       </c>
       <c r="S104" s="24">
-        <v>659</v>
+        <f>SUM(S95:S103)</f>
+        <v>-1490</v>
       </c>
       <c r="T104" s="24">
-        <v>-23</v>
+        <f t="shared" ref="T104:U104" si="97">SUM(T95:T103)</f>
+        <v>-728</v>
       </c>
       <c r="U104" s="24">
-        <v>443</v>
+        <f t="shared" si="97"/>
+        <v>405</v>
       </c>
       <c r="V104" s="24"/>
       <c r="W104" s="24"/>
@@ -7924,8 +7836,8 @@
       <c r="Z104" s="24"/>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B105" s="2" t="s">
-        <v>85</v>
+      <c r="B105" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
@@ -7940,23 +7852,29 @@
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
       <c r="O105" s="24"/>
-      <c r="P105" s="24">
-        <v>40.965000000000003</v>
-      </c>
-      <c r="Q105" s="24">
-        <v>-128.34200000000001</v>
-      </c>
-      <c r="R105" s="24">
-        <v>52.790999999999997</v>
-      </c>
-      <c r="S105" s="24">
-        <v>100</v>
-      </c>
-      <c r="T105" s="24">
-        <v>-126</v>
-      </c>
-      <c r="U105" s="24">
-        <v>46</v>
+      <c r="P105" s="29">
+        <f t="shared" ref="P105:R105" si="98">SUM(P86:P93)+P104</f>
+        <v>4088.469000000001</v>
+      </c>
+      <c r="Q105" s="29">
+        <f t="shared" si="98"/>
+        <v>4066.5630000000015</v>
+      </c>
+      <c r="R105" s="29">
+        <f t="shared" si="98"/>
+        <v>4561.9270000000006</v>
+      </c>
+      <c r="S105" s="29">
+        <f>SUM(S86:S93)+S104</f>
+        <v>3057</v>
+      </c>
+      <c r="T105" s="29">
+        <f t="shared" ref="T105:U105" si="99">SUM(T86:T93)+T104</f>
+        <v>4084</v>
+      </c>
+      <c r="U105" s="29">
+        <f t="shared" si="99"/>
+        <v>6057</v>
       </c>
       <c r="V105" s="24"/>
       <c r="W105" s="24"/>
@@ -7966,7 +7884,7 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -7982,22 +7900,22 @@
       <c r="N106" s="24"/>
       <c r="O106" s="24"/>
       <c r="P106" s="24">
-        <v>0</v>
+        <v>-1125.1389999999999</v>
       </c>
       <c r="Q106" s="24">
-        <v>29.617000000000001</v>
+        <v>-1223.116</v>
       </c>
       <c r="R106" s="24">
-        <v>200.24299999999999</v>
+        <v>-568.02099999999996</v>
       </c>
       <c r="S106" s="24">
-        <v>-129</v>
+        <v>-1045</v>
       </c>
       <c r="T106" s="24">
-        <v>-1</v>
+        <v>-1457</v>
       </c>
       <c r="U106" s="24">
-        <v>-18</v>
+        <v>-1722</v>
       </c>
       <c r="V106" s="24"/>
       <c r="W106" s="24"/>
@@ -8007,7 +7925,7 @@
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
@@ -8023,22 +7941,23 @@
       <c r="N107" s="24"/>
       <c r="O107" s="24"/>
       <c r="P107" s="24">
-        <v>-15.708</v>
+        <v>-161.625</v>
       </c>
       <c r="Q107" s="24">
-        <v>-93.292000000000002</v>
+        <f>-230.156-28.838</f>
+        <v>-258.99400000000003</v>
       </c>
       <c r="R107" s="24">
-        <v>-42.841999999999999</v>
+        <v>-29.1</v>
       </c>
       <c r="S107" s="24">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="T107" s="24">
-        <v>93</v>
+        <v>-31</v>
       </c>
       <c r="U107" s="24">
-        <v>-42</v>
+        <v>-28</v>
       </c>
       <c r="V107" s="24"/>
       <c r="W107" s="24"/>
@@ -8048,7 +7967,7 @@
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
@@ -8064,28 +7983,24 @@
       <c r="N108" s="24"/>
       <c r="O108" s="24"/>
       <c r="P108" s="24">
-        <f t="shared" ref="P108:R108" si="96">SUM(P99:P107)</f>
-        <v>140.26800000000003</v>
+        <f>636.56+26.652</f>
+        <v>663.21199999999999</v>
       </c>
       <c r="Q108" s="24">
-        <f t="shared" si="96"/>
-        <v>-207.73399999999998</v>
+        <f>12.72+7.419</f>
+        <v>20.138999999999999</v>
       </c>
       <c r="R108" s="24">
-        <f t="shared" si="96"/>
-        <v>3376.8049999999998</v>
+        <v>18.524000000000001</v>
       </c>
       <c r="S108" s="24">
-        <f>SUM(S99:S107)</f>
-        <v>-1490</v>
+        <v>21</v>
       </c>
       <c r="T108" s="24">
-        <f t="shared" ref="T108:U108" si="97">SUM(T99:T107)</f>
-        <v>-728</v>
+        <v>18</v>
       </c>
       <c r="U108" s="24">
-        <f t="shared" si="97"/>
-        <v>405</v>
+        <v>33</v>
       </c>
       <c r="V108" s="24"/>
       <c r="W108" s="24"/>
@@ -8095,7 +8010,7 @@
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
@@ -8111,28 +8026,28 @@
       <c r="N109" s="24"/>
       <c r="O109" s="24"/>
       <c r="P109" s="29">
-        <f t="shared" ref="P109:R109" si="98">SUM(P90:P97)+P108</f>
-        <v>4088.469000000001</v>
+        <f t="shared" ref="P109:T109" si="100">SUM(P106:P108)</f>
+        <v>-623.55199999999991</v>
       </c>
       <c r="Q109" s="29">
-        <f t="shared" si="98"/>
-        <v>4066.5630000000015</v>
+        <f t="shared" si="100"/>
+        <v>-1461.9710000000002</v>
       </c>
       <c r="R109" s="29">
-        <f t="shared" si="98"/>
-        <v>4561.9270000000006</v>
+        <f t="shared" si="100"/>
+        <v>-578.59699999999998</v>
       </c>
       <c r="S109" s="29">
-        <f>SUM(S90:S97)+S108</f>
-        <v>3057</v>
+        <f t="shared" si="100"/>
+        <v>-1046</v>
       </c>
       <c r="T109" s="29">
-        <f t="shared" ref="T109:U109" si="99">SUM(T90:T97)+T108</f>
-        <v>4084</v>
+        <f t="shared" si="100"/>
+        <v>-1470</v>
       </c>
       <c r="U109" s="29">
-        <f t="shared" si="99"/>
-        <v>6057</v>
+        <f>SUM(U106:U108)</f>
+        <v>-1717</v>
       </c>
       <c r="V109" s="24"/>
       <c r="W109" s="24"/>
@@ -8142,7 +8057,7 @@
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
@@ -8158,22 +8073,22 @@
       <c r="N110" s="24"/>
       <c r="O110" s="24"/>
       <c r="P110" s="24">
-        <v>-1125.1389999999999</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="24">
-        <v>-1223.116</v>
+        <v>0</v>
       </c>
       <c r="R110" s="24">
-        <v>-568.02099999999996</v>
+        <v>-1000</v>
       </c>
       <c r="S110" s="24">
-        <v>-1045</v>
+        <v>0</v>
       </c>
       <c r="T110" s="24">
-        <v>-1457</v>
+        <v>0</v>
       </c>
       <c r="U110" s="24">
-        <v>-1722</v>
+        <v>0</v>
       </c>
       <c r="V110" s="24"/>
       <c r="W110" s="24"/>
@@ -8183,7 +8098,7 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
@@ -8199,23 +8114,22 @@
       <c r="N111" s="24"/>
       <c r="O111" s="24"/>
       <c r="P111" s="24">
-        <v>-161.625</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="24">
-        <f>-230.156-28.838</f>
-        <v>-258.99400000000003</v>
+        <v>0</v>
       </c>
       <c r="R111" s="24">
-        <v>-29.1</v>
+        <v>5986.8729999999996</v>
       </c>
       <c r="S111" s="24">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="T111" s="24">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="U111" s="24">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="V111" s="24"/>
       <c r="W111" s="24"/>
@@ -8225,7 +8139,7 @@
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
@@ -8241,24 +8155,22 @@
       <c r="N112" s="24"/>
       <c r="O112" s="24"/>
       <c r="P112" s="24">
-        <f>636.56+26.652</f>
-        <v>663.21199999999999</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="24">
-        <f>12.72+7.419</f>
-        <v>20.138999999999999</v>
+        <v>0</v>
       </c>
       <c r="R112" s="24">
-        <v>18.524000000000001</v>
+        <v>-42.377000000000002</v>
       </c>
       <c r="S112" s="24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T112" s="24">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U112" s="24">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="V112" s="24"/>
       <c r="W112" s="24"/>
@@ -8267,8 +8179,8 @@
       <c r="Z112" s="24"/>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
-        <v>92</v>
+      <c r="B113" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
@@ -8283,29 +8195,23 @@
       <c r="M113" s="24"/>
       <c r="N113" s="24"/>
       <c r="O113" s="24"/>
-      <c r="P113" s="29">
-        <f t="shared" ref="P113:T113" si="100">SUM(P110:P112)</f>
-        <v>-623.55199999999991</v>
-      </c>
-      <c r="Q113" s="29">
-        <f t="shared" si="100"/>
-        <v>-1461.9710000000002</v>
-      </c>
-      <c r="R113" s="29">
-        <f t="shared" si="100"/>
-        <v>-578.59699999999998</v>
-      </c>
-      <c r="S113" s="29">
-        <f t="shared" si="100"/>
-        <v>-1046</v>
-      </c>
-      <c r="T113" s="29">
-        <f t="shared" si="100"/>
-        <v>-1470</v>
-      </c>
-      <c r="U113" s="29">
-        <f>SUM(U110:U112)</f>
-        <v>-1717</v>
+      <c r="P113" s="24">
+        <v>-2406.9969999999998</v>
+      </c>
+      <c r="Q113" s="24">
+        <v>-1551.992</v>
+      </c>
+      <c r="R113" s="24">
+        <v>-201.5</v>
+      </c>
+      <c r="S113" s="24">
+        <v>-2176</v>
+      </c>
+      <c r="T113" s="24">
+        <v>-2255</v>
+      </c>
+      <c r="U113" s="24">
+        <v>-2484</v>
       </c>
       <c r="V113" s="24"/>
       <c r="W113" s="24"/>
@@ -8315,7 +8221,7 @@
     </row>
     <row r="114" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
@@ -8331,22 +8237,22 @@
       <c r="N114" s="24"/>
       <c r="O114" s="24"/>
       <c r="P114" s="24">
-        <v>0</v>
+        <v>255.24100000000001</v>
       </c>
       <c r="Q114" s="24">
-        <v>0</v>
+        <v>232.10599999999999</v>
       </c>
       <c r="R114" s="24">
-        <v>-1000</v>
+        <v>211.18899999999999</v>
       </c>
       <c r="S114" s="24">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="T114" s="24">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="U114" s="24">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="V114" s="24"/>
       <c r="W114" s="24"/>
@@ -8356,7 +8262,7 @@
     </row>
     <row r="115" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
@@ -8372,22 +8278,22 @@
       <c r="N115" s="24"/>
       <c r="O115" s="24"/>
       <c r="P115" s="24">
-        <v>0</v>
+        <v>-922.596</v>
       </c>
       <c r="Q115" s="24">
-        <v>0</v>
+        <v>-1071.5619999999999</v>
       </c>
       <c r="R115" s="24">
-        <v>5986.8729999999996</v>
+        <v>-278.25599999999997</v>
       </c>
       <c r="S115" s="24">
-        <v>0</v>
+        <v>-1252</v>
       </c>
       <c r="T115" s="24">
-        <v>0</v>
+        <v>-1339</v>
       </c>
       <c r="U115" s="24">
-        <v>0</v>
+        <v>-1484</v>
       </c>
       <c r="V115" s="24"/>
       <c r="W115" s="24"/>
@@ -8397,7 +8303,7 @@
     </row>
     <row r="116" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
@@ -8419,16 +8325,16 @@
         <v>0</v>
       </c>
       <c r="R116" s="24">
-        <v>-42.377000000000002</v>
+        <v>-1418.3579999999999</v>
       </c>
       <c r="S116" s="24">
-        <v>0</v>
+        <v>-2976</v>
       </c>
       <c r="T116" s="24">
         <v>0</v>
       </c>
       <c r="U116" s="24">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="V116" s="24"/>
       <c r="W116" s="24"/>
@@ -8438,7 +8344,7 @@
     </row>
     <row r="117" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
@@ -8454,22 +8360,23 @@
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
       <c r="P117" s="24">
-        <v>-2406.9969999999998</v>
+        <f>-16.014-7.115</f>
+        <v>-23.128999999999998</v>
       </c>
       <c r="Q117" s="24">
-        <v>-1551.992</v>
+        <v>-23.422999999999998</v>
       </c>
       <c r="R117" s="24">
-        <v>-201.5</v>
+        <v>-29.309000000000001</v>
       </c>
       <c r="S117" s="24">
-        <v>-2176</v>
+        <v>-25</v>
       </c>
       <c r="T117" s="24">
-        <v>-2255</v>
+        <v>-33</v>
       </c>
       <c r="U117" s="24">
-        <v>-2484</v>
+        <v>-32</v>
       </c>
       <c r="V117" s="24"/>
       <c r="W117" s="24"/>
@@ -8478,8 +8385,8 @@
       <c r="Z117" s="24"/>
     </row>
     <row r="118" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B118" s="2" t="s">
-        <v>94</v>
+      <c r="B118" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
@@ -8494,23 +8401,29 @@
       <c r="M118" s="24"/>
       <c r="N118" s="24"/>
       <c r="O118" s="24"/>
-      <c r="P118" s="24">
-        <v>255.24100000000001</v>
-      </c>
-      <c r="Q118" s="24">
-        <v>232.10599999999999</v>
-      </c>
-      <c r="R118" s="24">
-        <v>211.18899999999999</v>
-      </c>
-      <c r="S118" s="24">
-        <v>229</v>
-      </c>
-      <c r="T118" s="24">
-        <v>321</v>
-      </c>
-      <c r="U118" s="24">
-        <v>285</v>
+      <c r="P118" s="29">
+        <f t="shared" ref="P118:T118" si="101">SUM(P110:P117)</f>
+        <v>-3097.4809999999998</v>
+      </c>
+      <c r="Q118" s="29">
+        <f t="shared" si="101"/>
+        <v>-2414.8709999999996</v>
+      </c>
+      <c r="R118" s="29">
+        <f>SUM(R110:R117)</f>
+        <v>3228.2619999999988</v>
+      </c>
+      <c r="S118" s="29">
+        <f t="shared" si="101"/>
+        <v>-6200</v>
+      </c>
+      <c r="T118" s="29">
+        <f t="shared" si="101"/>
+        <v>-3306</v>
+      </c>
+      <c r="U118" s="29">
+        <f>SUM(U110:U117)</f>
+        <v>-4215</v>
       </c>
       <c r="V118" s="24"/>
       <c r="W118" s="24"/>
@@ -8519,9 +8432,6 @@
       <c r="Z118" s="24"/>
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
@@ -8535,24 +8445,12 @@
       <c r="M119" s="24"/>
       <c r="N119" s="24"/>
       <c r="O119" s="24"/>
-      <c r="P119" s="24">
-        <v>-922.596</v>
-      </c>
-      <c r="Q119" s="24">
-        <v>-1071.5619999999999</v>
-      </c>
-      <c r="R119" s="24">
-        <v>-278.25599999999997</v>
-      </c>
-      <c r="S119" s="24">
-        <v>-1252</v>
-      </c>
-      <c r="T119" s="24">
-        <v>-1339</v>
-      </c>
-      <c r="U119" s="24">
-        <v>-1484</v>
-      </c>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="24"/>
+      <c r="S119" s="24"/>
+      <c r="T119" s="24"/>
+      <c r="U119" s="24"/>
       <c r="V119" s="24"/>
       <c r="W119" s="24"/>
       <c r="X119" s="24"/>
@@ -8561,7 +8459,7 @@
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
@@ -8577,22 +8475,22 @@
       <c r="N120" s="24"/>
       <c r="O120" s="24"/>
       <c r="P120" s="24">
-        <v>0</v>
+        <v>-95.674000000000007</v>
       </c>
       <c r="Q120" s="24">
-        <v>0</v>
+        <v>-3.1749999999999998</v>
       </c>
       <c r="R120" s="24">
-        <v>-1418.3579999999999</v>
+        <v>41.264000000000003</v>
       </c>
       <c r="S120" s="24">
-        <v>-2976</v>
+        <v>-54</v>
       </c>
       <c r="T120" s="24">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="U120" s="24">
-        <v>-500</v>
+        <v>-2</v>
       </c>
       <c r="V120" s="24"/>
       <c r="W120" s="24"/>
@@ -8602,7 +8500,7 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
@@ -8617,24 +8515,29 @@
       <c r="M121" s="24"/>
       <c r="N121" s="24"/>
       <c r="O121" s="24"/>
-      <c r="P121" s="24">
-        <f>-16.014-7.115</f>
-        <v>-23.128999999999998</v>
-      </c>
-      <c r="Q121" s="24">
-        <v>-23.422999999999998</v>
-      </c>
-      <c r="R121" s="24">
-        <v>-29.309000000000001</v>
-      </c>
-      <c r="S121" s="24">
-        <v>-25</v>
-      </c>
-      <c r="T121" s="24">
-        <v>-33</v>
-      </c>
-      <c r="U121" s="24">
-        <v>-32</v>
+      <c r="P121" s="29">
+        <f t="shared" ref="P121:U121" si="102">P105+P109+P118+P120</f>
+        <v>271.76200000000154</v>
+      </c>
+      <c r="Q121" s="29">
+        <f t="shared" si="102"/>
+        <v>186.54600000000181</v>
+      </c>
+      <c r="R121" s="29">
+        <f t="shared" si="102"/>
+        <v>7252.8559999999998</v>
+      </c>
+      <c r="S121" s="29">
+        <f t="shared" si="102"/>
+        <v>-4243</v>
+      </c>
+      <c r="T121" s="29">
+        <f t="shared" si="102"/>
+        <v>-750</v>
+      </c>
+      <c r="U121" s="29">
+        <f t="shared" si="102"/>
+        <v>123</v>
       </c>
       <c r="V121" s="24"/>
       <c r="W121" s="24"/>
@@ -8643,9 +8546,6 @@
       <c r="Z121" s="24"/>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
       <c r="E122" s="24"/>
@@ -8659,30 +8559,12 @@
       <c r="M122" s="24"/>
       <c r="N122" s="24"/>
       <c r="O122" s="24"/>
-      <c r="P122" s="29">
-        <f t="shared" ref="P122:T122" si="101">SUM(P114:P121)</f>
-        <v>-3097.4809999999998</v>
-      </c>
-      <c r="Q122" s="29">
-        <f t="shared" si="101"/>
-        <v>-2414.8709999999996</v>
-      </c>
-      <c r="R122" s="29">
-        <f>SUM(R114:R121)</f>
-        <v>3228.2619999999988</v>
-      </c>
-      <c r="S122" s="29">
-        <f t="shared" si="101"/>
-        <v>-6200</v>
-      </c>
-      <c r="T122" s="29">
-        <f t="shared" si="101"/>
-        <v>-3306</v>
-      </c>
-      <c r="U122" s="29">
-        <f>SUM(U114:U121)</f>
-        <v>-4215</v>
-      </c>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
       <c r="V122" s="24"/>
       <c r="W122" s="24"/>
       <c r="X122" s="24"/>
@@ -8690,6 +8572,9 @@
       <c r="Z122" s="24"/>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
@@ -8703,12 +8588,29 @@
       <c r="M123" s="24"/>
       <c r="N123" s="24"/>
       <c r="O123" s="24"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="24"/>
-      <c r="R123" s="24"/>
-      <c r="S123" s="24"/>
-      <c r="T123" s="24"/>
-      <c r="U123" s="24"/>
+      <c r="P123" s="24">
+        <f>P124-P121</f>
+        <v>2758.8359999999971</v>
+      </c>
+      <c r="Q123" s="24">
+        <f>Q124-Q121</f>
+        <v>3030.5979999999986</v>
+      </c>
+      <c r="R123" s="24">
+        <f>R124-R121</f>
+        <v>3217.1440000000002</v>
+      </c>
+      <c r="S123" s="24">
+        <f>S124-S121</f>
+        <v>10470</v>
+      </c>
+      <c r="T123" s="24">
+        <f>T124-T121</f>
+        <v>6227</v>
+      </c>
+      <c r="U123" s="24">
+        <v>5477</v>
+      </c>
       <c r="V123" s="24"/>
       <c r="W123" s="24"/>
       <c r="X123" s="24"/>
@@ -8717,7 +8619,7 @@
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
@@ -8733,22 +8635,28 @@
       <c r="N124" s="24"/>
       <c r="O124" s="24"/>
       <c r="P124" s="24">
-        <v>-95.674000000000007</v>
+        <f>Q123</f>
+        <v>3030.5979999999986</v>
       </c>
       <c r="Q124" s="24">
-        <v>-3.1749999999999998</v>
+        <f>R123</f>
+        <v>3217.1440000000002</v>
       </c>
       <c r="R124" s="24">
-        <v>41.264000000000003</v>
+        <f>S123</f>
+        <v>10470</v>
       </c>
       <c r="S124" s="24">
-        <v>-54</v>
+        <f>T123</f>
+        <v>6227</v>
       </c>
       <c r="T124" s="24">
-        <v>-58</v>
+        <f>U123</f>
+        <v>5477</v>
       </c>
       <c r="U124" s="24">
-        <v>-2</v>
+        <f>U123+U121</f>
+        <v>5600</v>
       </c>
       <c r="V124" s="24"/>
       <c r="W124" s="24"/>
@@ -8757,9 +8665,6 @@
       <c r="Z124" s="24"/>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
@@ -8773,30 +8678,12 @@
       <c r="M125" s="24"/>
       <c r="N125" s="24"/>
       <c r="O125" s="24"/>
-      <c r="P125" s="29">
-        <f t="shared" ref="P125:U125" si="102">P109+P113+P122+P124</f>
-        <v>271.76200000000154</v>
-      </c>
-      <c r="Q125" s="29">
-        <f t="shared" si="102"/>
-        <v>186.54600000000181</v>
-      </c>
-      <c r="R125" s="29">
-        <f t="shared" si="102"/>
-        <v>7252.8559999999998</v>
-      </c>
-      <c r="S125" s="29">
-        <f t="shared" si="102"/>
-        <v>-4243</v>
-      </c>
-      <c r="T125" s="29">
-        <f t="shared" si="102"/>
-        <v>-750</v>
-      </c>
-      <c r="U125" s="29">
-        <f t="shared" si="102"/>
-        <v>123</v>
-      </c>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="24"/>
+      <c r="R125" s="24"/>
+      <c r="S125" s="24"/>
+      <c r="T125" s="24"/>
+      <c r="U125" s="24"/>
       <c r="V125" s="24"/>
       <c r="W125" s="24"/>
       <c r="X125" s="24"/>
@@ -8830,9 +8717,6 @@
       <c r="Z126" s="24"/>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
       <c r="E127" s="24"/>
@@ -8846,29 +8730,12 @@
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
       <c r="O127" s="24"/>
-      <c r="P127" s="24">
-        <f>P128-P125</f>
-        <v>2758.8359999999971</v>
-      </c>
-      <c r="Q127" s="24">
-        <f>Q128-Q125</f>
-        <v>3030.5979999999986</v>
-      </c>
-      <c r="R127" s="24">
-        <f>R128-R125</f>
-        <v>3217.1440000000002</v>
-      </c>
-      <c r="S127" s="24">
-        <f>S128-S125</f>
-        <v>10470</v>
-      </c>
-      <c r="T127" s="24">
-        <f>T128-T125</f>
-        <v>6227</v>
-      </c>
-      <c r="U127" s="24">
-        <v>5477</v>
-      </c>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
+      <c r="S127" s="24"/>
+      <c r="T127" s="24"/>
+      <c r="U127" s="24"/>
       <c r="V127" s="24"/>
       <c r="W127" s="24"/>
       <c r="X127" s="24"/>
@@ -8876,9 +8743,6 @@
       <c r="Z127" s="24"/>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B128" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
@@ -8892,30 +8756,12 @@
       <c r="M128" s="24"/>
       <c r="N128" s="24"/>
       <c r="O128" s="24"/>
-      <c r="P128" s="24">
-        <f>Q127</f>
-        <v>3030.5979999999986</v>
-      </c>
-      <c r="Q128" s="24">
-        <f>R127</f>
-        <v>3217.1440000000002</v>
-      </c>
-      <c r="R128" s="24">
-        <f>S127</f>
-        <v>10470</v>
-      </c>
-      <c r="S128" s="24">
-        <f>T127</f>
-        <v>6227</v>
-      </c>
-      <c r="T128" s="24">
-        <f>U127</f>
-        <v>5477</v>
-      </c>
-      <c r="U128" s="24">
-        <f>U127+U125</f>
-        <v>5600</v>
-      </c>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
+      <c r="S128" s="24"/>
+      <c r="T128" s="24"/>
+      <c r="U128" s="24"/>
       <c r="V128" s="24"/>
       <c r="W128" s="24"/>
       <c r="X128" s="24"/>
@@ -13239,108 +13085,88 @@
       <c r="Z294" s="24"/>
     </row>
     <row r="295" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C295" s="24"/>
-      <c r="D295" s="24"/>
-      <c r="E295" s="24"/>
-      <c r="F295" s="24"/>
-      <c r="G295" s="24"/>
-      <c r="H295" s="24"/>
-      <c r="I295" s="24"/>
-      <c r="J295" s="24"/>
-      <c r="K295" s="24"/>
-      <c r="L295" s="24"/>
-      <c r="M295" s="24"/>
-      <c r="N295" s="24"/>
-      <c r="O295" s="24"/>
-      <c r="P295" s="24"/>
-      <c r="Q295" s="24"/>
-      <c r="R295" s="24"/>
-      <c r="S295" s="24"/>
-      <c r="T295" s="24"/>
-      <c r="U295" s="24"/>
-      <c r="V295" s="24"/>
-      <c r="W295" s="24"/>
-      <c r="X295" s="24"/>
-      <c r="Y295" s="24"/>
-      <c r="Z295" s="24"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="3"/>
+      <c r="T295" s="3"/>
+      <c r="U295" s="3"/>
+      <c r="V295" s="3"/>
+      <c r="W295" s="3"/>
+      <c r="X295" s="3"/>
+      <c r="Y295" s="3"/>
     </row>
     <row r="296" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C296" s="24"/>
-      <c r="D296" s="24"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="24"/>
-      <c r="G296" s="24"/>
-      <c r="H296" s="24"/>
-      <c r="I296" s="24"/>
-      <c r="J296" s="24"/>
-      <c r="K296" s="24"/>
-      <c r="L296" s="24"/>
-      <c r="M296" s="24"/>
-      <c r="N296" s="24"/>
-      <c r="O296" s="24"/>
-      <c r="P296" s="24"/>
-      <c r="Q296" s="24"/>
-      <c r="R296" s="24"/>
-      <c r="S296" s="24"/>
-      <c r="T296" s="24"/>
-      <c r="U296" s="24"/>
-      <c r="V296" s="24"/>
-      <c r="W296" s="24"/>
-      <c r="X296" s="24"/>
-      <c r="Y296" s="24"/>
-      <c r="Z296" s="24"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="3"/>
+      <c r="T296" s="3"/>
+      <c r="U296" s="3"/>
+      <c r="V296" s="3"/>
+      <c r="W296" s="3"/>
+      <c r="X296" s="3"/>
+      <c r="Y296" s="3"/>
     </row>
     <row r="297" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C297" s="24"/>
-      <c r="D297" s="24"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="24"/>
-      <c r="G297" s="24"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="24"/>
-      <c r="J297" s="24"/>
-      <c r="K297" s="24"/>
-      <c r="L297" s="24"/>
-      <c r="M297" s="24"/>
-      <c r="N297" s="24"/>
-      <c r="O297" s="24"/>
-      <c r="P297" s="24"/>
-      <c r="Q297" s="24"/>
-      <c r="R297" s="24"/>
-      <c r="S297" s="24"/>
-      <c r="T297" s="24"/>
-      <c r="U297" s="24"/>
-      <c r="V297" s="24"/>
-      <c r="W297" s="24"/>
-      <c r="X297" s="24"/>
-      <c r="Y297" s="24"/>
-      <c r="Z297" s="24"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="3"/>
+      <c r="T297" s="3"/>
+      <c r="U297" s="3"/>
+      <c r="V297" s="3"/>
+      <c r="W297" s="3"/>
+      <c r="X297" s="3"/>
+      <c r="Y297" s="3"/>
     </row>
     <row r="298" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C298" s="24"/>
-      <c r="D298" s="24"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="24"/>
-      <c r="G298" s="24"/>
-      <c r="H298" s="24"/>
-      <c r="I298" s="24"/>
-      <c r="J298" s="24"/>
-      <c r="K298" s="24"/>
-      <c r="L298" s="24"/>
-      <c r="M298" s="24"/>
-      <c r="N298" s="24"/>
-      <c r="O298" s="24"/>
-      <c r="P298" s="24"/>
-      <c r="Q298" s="24"/>
-      <c r="R298" s="24"/>
-      <c r="S298" s="24"/>
-      <c r="T298" s="24"/>
-      <c r="U298" s="24"/>
-      <c r="V298" s="24"/>
-      <c r="W298" s="24"/>
-      <c r="X298" s="24"/>
-      <c r="Y298" s="24"/>
-      <c r="Z298" s="24"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="3"/>
+      <c r="T298" s="3"/>
+      <c r="U298" s="3"/>
+      <c r="V298" s="3"/>
+      <c r="W298" s="3"/>
+      <c r="X298" s="3"/>
+      <c r="Y298" s="3"/>
     </row>
     <row r="299" spans="3:26" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
@@ -14895,90 +14721,6 @@
       <c r="W372" s="3"/>
       <c r="X372" s="3"/>
       <c r="Y372" s="3"/>
-    </row>
-    <row r="373" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
-      <c r="K373" s="3"/>
-      <c r="L373" s="3"/>
-      <c r="M373" s="3"/>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-      <c r="P373" s="3"/>
-      <c r="Q373" s="3"/>
-      <c r="R373" s="3"/>
-      <c r="S373" s="3"/>
-      <c r="T373" s="3"/>
-      <c r="U373" s="3"/>
-      <c r="V373" s="3"/>
-      <c r="W373" s="3"/>
-      <c r="X373" s="3"/>
-      <c r="Y373" s="3"/>
-    </row>
-    <row r="374" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
-      <c r="K374" s="3"/>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3"/>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-      <c r="P374" s="3"/>
-      <c r="Q374" s="3"/>
-      <c r="R374" s="3"/>
-      <c r="S374" s="3"/>
-      <c r="T374" s="3"/>
-      <c r="U374" s="3"/>
-      <c r="V374" s="3"/>
-      <c r="W374" s="3"/>
-      <c r="X374" s="3"/>
-      <c r="Y374" s="3"/>
-    </row>
-    <row r="375" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
-      <c r="K375" s="3"/>
-      <c r="L375" s="3"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
-      <c r="P375" s="3"/>
-      <c r="Q375" s="3"/>
-      <c r="R375" s="3"/>
-      <c r="S375" s="3"/>
-      <c r="T375" s="3"/>
-      <c r="U375" s="3"/>
-      <c r="V375" s="3"/>
-      <c r="W375" s="3"/>
-      <c r="X375" s="3"/>
-      <c r="Y375" s="3"/>
-    </row>
-    <row r="376" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-      <c r="J376" s="3"/>
-      <c r="K376" s="3"/>
-      <c r="L376" s="3"/>
-      <c r="M376" s="3"/>
-      <c r="N376" s="3"/>
-      <c r="O376" s="3"/>
-      <c r="P376" s="3"/>
-      <c r="Q376" s="3"/>
-      <c r="R376" s="3"/>
-      <c r="S376" s="3"/>
-      <c r="T376" s="3"/>
-      <c r="U376" s="3"/>
-      <c r="V376" s="3"/>
-      <c r="W376" s="3"/>
-      <c r="X376" s="3"/>
-      <c r="Y376" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -15020,7 +14762,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -15044,7 +14786,7 @@
         <v>103</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15052,35 +14794,35 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="27">
-        <f>Model!P28/Model!P84</f>
+        <f>Model!P28/Model!P80</f>
         <v>0.60606987354529185</v>
       </c>
       <c r="D4" s="27">
-        <f>Model!Q28/Model!Q84</f>
+        <f>Model!Q28/Model!Q80</f>
         <v>0.550117581552238</v>
       </c>
       <c r="E4" s="27">
-        <f>Model!R28/Model!R84</f>
+        <f>Model!R28/Model!R80</f>
         <v>1.5517384449423442E-2</v>
       </c>
       <c r="F4" s="27">
-        <f>Model!S28/Model!S84</f>
+        <f>Model!S28/Model!S80</f>
         <v>0.54689394888415643</v>
       </c>
       <c r="G4" s="27">
-        <f>Model!T28/Model!T84</f>
+        <f>Model!T28/Model!T80</f>
         <v>0.549654305468259</v>
       </c>
       <c r="H4" s="27">
-        <f>Model!U28/Model!U84</f>
+        <f>Model!U28/Model!U80</f>
         <v>0.6127088468912627</v>
       </c>
       <c r="K4" s="31">
@@ -15090,30 +14832,30 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C5" s="27">
-        <f>Model!P23/Model!P63</f>
+        <f>Model!P23/Model!P59</f>
         <v>0.29444258419412678</v>
       </c>
       <c r="D5" s="27">
-        <f>Model!Q23/Model!Q63</f>
+        <f>Model!Q23/Model!Q59</f>
         <v>0.18290459520754673</v>
       </c>
       <c r="E5" s="27">
-        <f>Model!R23/Model!R63</f>
+        <f>Model!R23/Model!R59</f>
         <v>1.889648337985184E-2</v>
       </c>
       <c r="F5" s="27">
-        <f>Model!S23/Model!S63</f>
+        <f>Model!S23/Model!S59</f>
         <v>0.16706803987343163</v>
       </c>
       <c r="G5" s="27">
-        <f>Model!T23/Model!T63</f>
+        <f>Model!T23/Model!T59</f>
         <v>0.17143461850506192</v>
       </c>
       <c r="H5" s="27">
-        <f>Model!U23/Model!U63</f>
+        <f>Model!U23/Model!U59</f>
         <v>0.19487679429858473</v>
       </c>
       <c r="K5" s="31">
@@ -15123,30 +14865,30 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="27">
-        <f>Model!P23/(Model!P61+Model!P51+Model!P52+Model!P53+Model!P54-Model!P65)</f>
+        <f>Model!P23/(Model!P57+Model!P47+Model!P48+Model!P49+Model!P50-Model!P61)</f>
         <v>0.48755897280717458</v>
       </c>
       <c r="D6" s="27">
-        <f>Model!Q23/(Model!Q61+Model!Q51+Model!Q52+Model!Q53+Model!Q54-Model!Q65)</f>
+        <f>Model!Q23/(Model!Q57+Model!Q47+Model!Q48+Model!Q49+Model!Q50-Model!Q61)</f>
         <v>0.24190983919866321</v>
       </c>
       <c r="E6" s="27">
-        <f>Model!R23/(Model!R61+Model!R51+Model!R52+Model!R53+Model!R54-Model!R65)</f>
+        <f>Model!R23/(Model!R57+Model!R47+Model!R48+Model!R49+Model!R50-Model!R61)</f>
         <v>3.7515824938950552E-2</v>
       </c>
       <c r="F6" s="27">
-        <f>Model!S23/(Model!S61+Model!S51+Model!S52+Model!S53+Model!S54-Model!S65)</f>
+        <f>Model!S23/(Model!S57+Model!S47+Model!S48+Model!S49+Model!S50-Model!S61)</f>
         <v>0.26759687203737059</v>
       </c>
       <c r="G6" s="27">
-        <f>Model!T23/(Model!T61+Model!T51+Model!T52+Model!T53+Model!T54-Model!T65)</f>
+        <f>Model!T23/(Model!T57+Model!T47+Model!T48+Model!T49+Model!T50-Model!T61)</f>
         <v>0.25474368382430024</v>
       </c>
       <c r="H6" s="27">
-        <f>Model!U23/(Model!U61+Model!U51+Model!U52+Model!U53+Model!U54-Model!U65)</f>
+        <f>Model!U23/(Model!U57+Model!U47+Model!U48+Model!U49+Model!U50-Model!U61)</f>
         <v>0.28577766822775452</v>
       </c>
       <c r="K6" s="31">
@@ -15156,30 +14898,30 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" s="27">
-        <f>(Model!P23*(1-Model!P46))/(Model!P84+Model!P74+Model!P73+Model!P71+Model!P67+Model!P68-Model!P50)</f>
+        <f>(Model!P23*(1-Model!P42))/(Model!P80+Model!P70+Model!P69+Model!P67+Model!P63+Model!P64-Model!P46)</f>
         <v>0.55166818655698691</v>
       </c>
       <c r="D7" s="27">
-        <f>(Model!Q23*(1-Model!Q46))/(Model!Q84+Model!Q74+Model!Q73+Model!Q71+Model!Q67+Model!Q68-Model!Q50)</f>
+        <f>(Model!Q23*(1-Model!Q42))/(Model!Q80+Model!Q70+Model!Q69+Model!Q67+Model!Q63+Model!Q64-Model!Q46)</f>
         <v>0.21796044331360612</v>
       </c>
       <c r="E7" s="27">
-        <f>(Model!R23*(1-Model!R46))/(Model!R84+Model!R74+Model!R73+Model!R71+Model!R67+Model!R68-Model!R50)</f>
+        <f>(Model!R23*(1-Model!R42))/(Model!R80+Model!R70+Model!R69+Model!R67+Model!R63+Model!R64-Model!R46)</f>
         <v>4.9464888592549487E-2</v>
       </c>
       <c r="F7" s="27">
-        <f>(Model!S23*(1-Model!S46))/(Model!S84+Model!S74+Model!S73+Model!S71+Model!S67+Model!S68-Model!S50)</f>
+        <f>(Model!S23*(1-Model!S42))/(Model!S80+Model!S70+Model!S69+Model!S67+Model!S63+Model!S64-Model!S46)</f>
         <v>0.26690037562102642</v>
       </c>
       <c r="G7" s="27">
-        <f>(Model!T23*(1-Model!T46))/(Model!T84+Model!T74+Model!T73+Model!T71+Model!T67+Model!T68-Model!T50)</f>
+        <f>(Model!T23*(1-Model!T42))/(Model!T80+Model!T70+Model!T69+Model!T67+Model!T63+Model!T64-Model!T46)</f>
         <v>0.25202849950632877</v>
       </c>
       <c r="H7" s="27">
-        <f>(Model!U23*(1-Model!U46))/(Model!U84+Model!U74+Model!U73+Model!U71+Model!U67+Model!U68-Model!U50)</f>
+        <f>(Model!U23*(1-Model!U42))/(Model!U80+Model!U70+Model!U69+Model!U67+Model!U63+Model!U64-Model!U46)</f>
         <v>0.28655957361126133</v>
       </c>
       <c r="K7" s="31">
@@ -15189,30 +14931,30 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" s="27">
-        <f>(Model!P28+Model!P119+Model!P117)/Model!P28</f>
+        <f>(Model!P28+Model!P115+Model!P113)/Model!P28</f>
         <v>-8.8170564950480021E-2</v>
       </c>
       <c r="D9" s="27">
-        <f>(Model!Q28+Model!Q119+Model!Q117)/Model!Q28</f>
+        <f>(Model!Q28+Model!Q115+Model!Q113)/Model!Q28</f>
         <v>0.19823324621602031</v>
       </c>
       <c r="E9" s="27">
-        <f>(Model!R28+Model!R119+Model!R117)/Model!R28</f>
+        <f>(Model!R28+Model!R115+Model!R113)/Model!R28</f>
         <v>-4.3007027003137299</v>
       </c>
       <c r="F9" s="27">
-        <f>(Model!S28+Model!S119+Model!S117)/Model!S28</f>
+        <f>(Model!S28+Model!S115+Model!S113)/Model!S28</f>
         <v>-4.41669204995431E-2</v>
       </c>
       <c r="G9" s="27">
-        <f>(Model!T28+Model!T119+Model!T117)/Model!T28</f>
+        <f>(Model!T28+Model!T115+Model!T113)/Model!T28</f>
         <v>-2.7444253859348199E-2</v>
       </c>
       <c r="H9" s="27">
-        <f>(Model!U28+Model!U119+Model!U117)/Model!U28</f>
+        <f>(Model!U28+Model!U115+Model!U113)/Model!U28</f>
         <v>0.11309789897183728</v>
       </c>
       <c r="K9" s="31">
@@ -15222,7 +14964,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C10" s="31">
         <f t="shared" ref="C10:G10" si="1">C9*C6</f>
@@ -15255,30 +14997,30 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="27">
-        <f>(-Model!P110-Model!P108)/(Model!P23*(1-Model!P46))</f>
+        <f>(-Model!P106-Model!P104)/(Model!P23*(1-Model!P42))</f>
         <v>0.31844183021581496</v>
       </c>
       <c r="D11" s="27">
-        <f>(-Model!Q110-Model!Q108)/(Model!Q23*(1-Model!Q46))</f>
+        <f>(-Model!Q106-Model!Q104)/(Model!Q23*(1-Model!Q42))</f>
         <v>0.43627975561935822</v>
       </c>
       <c r="E11" s="27">
-        <f>(-Model!R110-Model!R108)/(Model!R23*(1-Model!R46))</f>
+        <f>(-Model!R106-Model!R104)/(Model!R23*(1-Model!R42))</f>
         <v>-4.759537725577724</v>
       </c>
       <c r="F11" s="27">
-        <f>(-Model!S110-Model!S108)/(Model!S23*(1-Model!S46))</f>
+        <f>(-Model!S106-Model!S104)/(Model!S23*(1-Model!S42))</f>
         <v>0.71418674348594369</v>
       </c>
       <c r="G11" s="27">
-        <f>(-Model!T110-Model!T108)/(Model!T23*(1-Model!T46))</f>
+        <f>(-Model!T106-Model!T104)/(Model!T23*(1-Model!T42))</f>
         <v>0.5958525388993593</v>
       </c>
       <c r="H11" s="27">
-        <f>(-Model!U110-Model!U108)/(Model!U23*(1-Model!U46))</f>
+        <f>(-Model!U106-Model!U104)/(Model!U23*(1-Model!U42))</f>
         <v>0.3029999331425493</v>
       </c>
       <c r="K11" s="31">
@@ -15288,7 +15030,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C12" s="31">
         <f t="shared" ref="C12:G12" si="2">C11*C7</f>
@@ -15327,70 +15069,70 @@
         <v>10</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" s="27">
-        <f>C31/Model!P84</f>
+        <f>C31/Model!P80</f>
         <v>0.11045207330498763</v>
       </c>
       <c r="D15" s="27">
-        <f>D31/Model!Q84</f>
+        <f>D31/Model!Q80</f>
         <v>1.5296761446969274</v>
       </c>
       <c r="E15" s="27">
-        <f>E31/Model!R84</f>
+        <f>E31/Model!R80</f>
         <v>1.0454463159670575</v>
       </c>
       <c r="F15" s="27">
-        <f>F31/Model!S84</f>
+        <f>F31/Model!S80</f>
         <v>1.2153850946328095</v>
       </c>
       <c r="G15" s="27">
-        <f>G31/Model!T84</f>
+        <f>G31/Model!T80</f>
         <v>1.2862979258328096</v>
       </c>
       <c r="H15" s="27">
-        <f>H31/Model!U84</f>
+        <f>H31/Model!U80</f>
         <v>1.0772391125718981</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" s="27">
-        <f>C31/(Model!P23+Model!P91)</f>
+        <f>C31/(Model!P23+Model!P87)</f>
         <v>0.11068793659514942</v>
       </c>
       <c r="D16" s="27">
-        <f>D31/(Model!Q23+Model!Q91)</f>
+        <f>D31/(Model!Q23+Model!Q87)</f>
         <v>1.7221118058269698</v>
       </c>
       <c r="E16" s="27">
-        <f>E31/(Model!R23+Model!R91)</f>
+        <f>E31/(Model!R23+Model!R87)</f>
         <v>4.196592490430314</v>
       </c>
       <c r="F16" s="27">
-        <f>F31/(Model!S23+Model!S91)</f>
+        <f>F31/(Model!S23+Model!S87)</f>
         <v>1.2975185843855592</v>
       </c>
       <c r="G16" s="27">
-        <f>G31/(Model!T23+Model!T91)</f>
+        <f>G31/(Model!T23+Model!T87)</f>
         <v>1.4243953366974074</v>
       </c>
       <c r="H16" s="27">
-        <f>H31/(Model!U23+Model!U91)</f>
+        <f>H31/(Model!U23+Model!U87)</f>
         <v>1.1634373613370803</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -15398,35 +15140,35 @@
         <v>10</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C20" s="32">
-        <f>Model!P51/Model!P19*360</f>
+        <f>Model!P47/Model!P19*360</f>
         <v>3.1988169020069157</v>
       </c>
       <c r="D20" s="32">
-        <f>Model!Q51/Model!Q19*360</f>
+        <f>Model!Q47/Model!Q19*360</f>
         <v>3.3332684517103339</v>
       </c>
       <c r="E20" s="32">
-        <f>Model!R51/Model!R19*360</f>
+        <f>Model!R47/Model!R19*360</f>
         <v>5.16569810498802</v>
       </c>
       <c r="F20" s="32">
-        <f>Model!S51/Model!S19*360</f>
+        <f>Model!S47/Model!S19*360</f>
         <v>3.838193202883625</v>
       </c>
       <c r="G20" s="32">
-        <f>Model!T51/Model!T19*360</f>
+        <f>Model!T47/Model!T19*360</f>
         <v>4.0587952579301509</v>
       </c>
       <c r="H20" s="32">
-        <f>Model!U51/Model!U19*360</f>
+        <f>Model!U47/Model!U19*360</f>
         <v>3.5125514137632106</v>
       </c>
       <c r="K20" s="32">
@@ -15436,30 +15178,30 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C21" s="33">
-        <f>Model!P65/Model!P19*360</f>
+        <f>Model!P61/Model!P19*360</f>
         <v>24.424424396685144</v>
       </c>
       <c r="D21" s="33">
-        <f>Model!Q65/Model!Q19*360</f>
+        <f>Model!Q61/Model!Q19*360</f>
         <v>23.063032336936978</v>
       </c>
       <c r="E21" s="33">
-        <f>Model!R65/Model!R19*360</f>
+        <f>Model!R61/Model!R19*360</f>
         <v>54.031892211469646</v>
       </c>
       <c r="F21" s="33">
-        <f>Model!S65/Model!S19*360</f>
+        <f>Model!S61/Model!S19*360</f>
         <v>33.111302162718843</v>
       </c>
       <c r="G21" s="33">
-        <f>Model!T65/Model!T19*360</f>
+        <f>Model!T61/Model!T19*360</f>
         <v>27.351810317206024</v>
       </c>
       <c r="H21" s="33">
-        <f>Model!U65/Model!U19*360</f>
+        <f>Model!U61/Model!U19*360</f>
         <v>25.643617315602118</v>
       </c>
       <c r="K21" s="32">
@@ -15469,30 +15211,30 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C22" s="27">
-        <f>Model!P52/Model!P63</f>
+        <f>Model!P48/Model!P59</f>
         <v>0.31963030369406631</v>
       </c>
       <c r="D22" s="27">
-        <f>Model!Q52/Model!Q63</f>
+        <f>Model!Q48/Model!Q59</f>
         <v>0.20180540047975973</v>
       </c>
       <c r="E22" s="27">
-        <f>Model!R52/Model!R63</f>
+        <f>Model!R48/Model!R59</f>
         <v>0.14076261999423373</v>
       </c>
       <c r="F22" s="27">
-        <f>Model!S52/Model!S63</f>
+        <f>Model!S48/Model!S59</f>
         <v>0.2094612651256306</v>
       </c>
       <c r="G22" s="27">
-        <f>Model!T52/Model!T63</f>
+        <f>Model!T48/Model!T59</f>
         <v>0.20526297223887968</v>
       </c>
       <c r="H22" s="27">
-        <f>Model!U52/Model!U63</f>
+        <f>Model!U48/Model!U59</f>
         <v>0.20052442263085354</v>
       </c>
       <c r="K22" s="31">
@@ -15502,30 +15244,30 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" s="32">
-        <f>Model!P20/Model!P52</f>
+        <f>Model!P20/Model!P48</f>
         <v>6.0779594731027267</v>
       </c>
       <c r="D23" s="32">
-        <f>Model!Q20/Model!Q52</f>
+        <f>Model!Q20/Model!Q48</f>
         <v>6.1252368349330295</v>
       </c>
       <c r="E23" s="32">
-        <f>Model!R20/Model!R52</f>
+        <f>Model!R20/Model!R48</f>
         <v>5.656343964745683</v>
       </c>
       <c r="F23" s="32">
-        <f>Model!S20/Model!S52</f>
+        <f>Model!S20/Model!S48</f>
         <v>5.8229598127876647</v>
       </c>
       <c r="G23" s="32">
-        <f>Model!T20/Model!T52</f>
+        <f>Model!T20/Model!T48</f>
         <v>6.2122357793435299</v>
       </c>
       <c r="H23" s="32">
-        <f>Model!U20/Model!U52</f>
+        <f>Model!U20/Model!U48</f>
         <v>6.362279966471081</v>
       </c>
       <c r="K23" s="32">
@@ -15535,7 +15277,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C24" s="32">
         <f t="shared" ref="C24:G24" si="3">360/C23</f>
@@ -15568,7 +15310,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C25" s="32">
         <f t="shared" ref="C25:G25" si="5">C20+C24-C21</f>
@@ -15604,7 +15346,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -15690,30 +15432,30 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C31" s="34">
-        <f>Model!P74+Model!P73+Model!P71+Model!P67+Model!P68-Model!P50</f>
+        <f>Model!P70+Model!P69+Model!P67+Model!P63+Model!P64-Model!P46</f>
         <v>557.62900000000036</v>
       </c>
       <c r="D31" s="34">
-        <f>Model!Q74+Model!Q73+Model!Q71+Model!Q67+Model!Q68-Model!Q50</f>
+        <f>Model!Q70+Model!Q69+Model!Q67+Model!Q63+Model!Q64-Model!Q46</f>
         <v>9098.8379999999997</v>
       </c>
       <c r="E31" s="34">
-        <f>Model!R74+Model!R73+Model!R71+Model!R67+Model!R68-Model!R50</f>
+        <f>Model!R70+Model!R69+Model!R67+Model!R63+Model!R64-Model!R46</f>
         <v>6097.7580000000016</v>
       </c>
       <c r="F31" s="34">
-        <f>Model!S74+Model!S73+Model!S71+Model!S67+Model!S68-Model!S50</f>
+        <f>Model!S70+Model!S69+Model!S67+Model!S63+Model!S64-Model!S46</f>
         <v>7295.9469999999992</v>
       </c>
       <c r="G31" s="34">
-        <f>Model!T74+Model!T73+Model!T71+Model!T67+Model!T68-Model!T50</f>
+        <f>Model!T70+Model!T69+Model!T67+Model!T63+Model!T64-Model!T46</f>
         <v>8186</v>
       </c>
       <c r="H31" s="34">
-        <f>Model!U74+Model!U73+Model!U71+Model!U67+Model!U68-Model!U50</f>
+        <f>Model!U70+Model!U69+Model!U67+Model!U63+Model!U64-Model!U46</f>
         <v>7866</v>
       </c>
     </row>
@@ -15748,12 +15490,12 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C34" s="34">
         <f>C30/Model!P28</f>
@@ -15786,7 +15528,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D35" s="32">
         <f>D34/((Model!Q28/Model!P28-1)*100)</f>
@@ -15815,30 +15557,30 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C36" s="32">
-        <f>C30/Model!P84</f>
+        <f>C30/Model!P80</f>
         <v>10.96449669473118</v>
       </c>
       <c r="D36" s="32">
-        <f>D30/Model!Q84</f>
+        <f>D30/Model!Q80</f>
         <v>12.402118952720581</v>
       </c>
       <c r="E36" s="32">
-        <f>E30/Model!R84</f>
+        <f>E30/Model!R80</f>
         <v>13.744465304480748</v>
       </c>
       <c r="F36" s="32">
-        <f>F30/Model!S84</f>
+        <f>F30/Model!S80</f>
         <v>15.092473886355338</v>
       </c>
       <c r="G36" s="32">
-        <f>G30/Model!T84</f>
+        <f>G30/Model!T80</f>
         <v>14.474230043997485</v>
       </c>
       <c r="H36" s="32">
-        <f>H30/Model!U84</f>
+        <f>H30/Model!U80</f>
         <v>15.317666392769103</v>
       </c>
       <c r="K36" s="34">
@@ -15848,12 +15590,12 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C38" s="32">
         <f>Ratios!C32/Model!P19</f>
@@ -15886,30 +15628,30 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C39" s="32">
-        <f>C32/(Model!P23+Model!P91)</f>
+        <f>C32/(Model!P23+Model!P87)</f>
         <v>11.098598607977056</v>
       </c>
       <c r="D39" s="32">
-        <f>D32/(Model!Q23+Model!Q91)</f>
+        <f>D32/(Model!Q23+Model!Q87)</f>
         <v>15.684436798469205</v>
       </c>
       <c r="E39" s="32">
-        <f>E32/(Model!R23+Model!R91)</f>
+        <f>E32/(Model!R23+Model!R87)</f>
         <v>59.369124069355905</v>
       </c>
       <c r="F39" s="32">
-        <f>F32/(Model!S23+Model!S91)</f>
+        <f>F32/(Model!S23+Model!S87)</f>
         <v>17.409914102792104</v>
       </c>
       <c r="G39" s="32">
-        <f>G32/(Model!T23+Model!T91)</f>
+        <f>G32/(Model!T23+Model!T87)</f>
         <v>17.45258395684705</v>
       </c>
       <c r="H39" s="32">
-        <f>H32/(Model!U23+Model!U91)</f>
+        <f>H32/(Model!U23+Model!U87)</f>
         <v>17.706788936547845</v>
       </c>
       <c r="K39" s="34">
@@ -15919,7 +15661,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C40" s="32">
         <f>C32/Model!P23</f>
@@ -15955,12 +15697,12 @@
         <v>10</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J43" s="35">
         <v>4.2770000000000002E-2</v>
@@ -15968,7 +15710,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J44" s="31">
         <v>0</v>
@@ -15976,7 +15718,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J45" s="35">
         <v>9.1999999999999998E-3</v>
@@ -15984,7 +15726,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J46" s="36">
         <f>SUM(J43:J45)</f>
@@ -15993,7 +15735,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J47" s="35">
         <v>4.2770000000000002E-2</v>
@@ -16001,7 +15743,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J48" s="35">
         <v>0.88</v>
@@ -16009,7 +15751,7 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J49" s="35">
         <v>4.6100000000000002E-2</v>
@@ -16017,7 +15759,7 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J50" s="35">
         <f>J47+J49*J48</f>
@@ -16026,29 +15768,29 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J51" s="27">
         <f>Main!I5/(Main!I7+Main!I5)</f>
-        <v>0.98213762811127381</v>
+        <v>0.98353479157651647</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J52" s="31">
         <f>1-J51</f>
-        <v>1.7862371888726192E-2</v>
+        <v>1.6465208423483535E-2</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J53" s="35">
         <f>(J51*J50)+(J52*J49*(1-27%))</f>
-        <v>8.2450508052708635E-2</v>
+        <v>8.2519926119479212E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16088,7 +15830,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -16099,7 +15841,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
       <c r="K3" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -16127,78 +15869,78 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D5" s="39">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H5" s="39">
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="40">
         <f>Q5+1%</f>
-        <v>9.245050805270863E-2</v>
+        <v>9.2519926119479207E-2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="40">
         <f>Ratios!J53</f>
-        <v>8.2450508052708635E-2</v>
+        <v>8.2519926119479212E-2</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U5" s="40">
         <f>Q5-1%</f>
-        <v>7.245050805270864E-2</v>
+        <v>7.2519926119479217E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="39">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M6" s="40">
         <f>Q6-0.5%</f>
         <v>0.02</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U6" s="41">
         <f>Q6+0.5%</f>
@@ -16207,13 +15949,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D7" s="39">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H7" s="39">
         <v>2</v>
@@ -16221,49 +15963,49 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D9" s="42">
         <f>CHOOSE(D7,M5,Q5,U5)</f>
-        <v>8.2450508052708635E-2</v>
+        <v>8.2519926119479212E-2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H9" s="39">
         <f>Main!I3</f>
-        <v>139.75</v>
+        <v>152.19999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D10" s="42">
         <f>CHOOSE(H7,M6,Q6,U6)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H10" s="43">
         <f ca="1">V67</f>
-        <v>93.529183456239238</v>
+        <v>93.570985767575579</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M10" s="39">
         <v>42.6</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="39">
         <v>91.8</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U10" s="39">
         <v>194.18</v>
@@ -16271,82 +16013,82 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="F11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H11" s="44">
         <f ca="1">H10/H9-1</f>
-        <v>-0.33073929548308234</v>
+        <v>-0.38521034318281477</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="44">
         <f>M10/H9-1</f>
-        <v>-0.69516994633273699</v>
+        <v>-0.72010512483574241</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="44">
         <f>Q10/H9-1</f>
-        <v>-0.34311270125223614</v>
+        <v>-0.39684625492772663</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="U11" s="44">
         <f>U10/H9-1</f>
-        <v>0.38948121645796063</v>
+        <v>0.27582128777923809</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="V15" s="45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -16354,7 +16096,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -16382,31 +16124,31 @@
         <v>103</v>
       </c>
       <c r="N16" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="R16" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="S16" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="T16" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="Q16" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="T16" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="U16" s="38" t="s">
-        <v>202</v>
-      </c>
       <c r="V16" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -16435,7 +16177,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G18" s="47">
         <f>Model!P19</f>
@@ -16504,7 +16246,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H19" s="27">
         <f>H18/G18-1</f>
@@ -16569,7 +16311,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B20" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -16619,7 +16361,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -16627,49 +16369,49 @@
       <c r="K21" s="27"/>
       <c r="L21" s="27"/>
       <c r="M21" s="49">
-        <f>Model!V42</f>
+        <f>Model!V38</f>
         <v>3.9526347824483166E-2</v>
       </c>
       <c r="N21" s="49">
-        <f>Model!W42</f>
+        <f>Model!W38</f>
         <v>0.10615841957089955</v>
       </c>
       <c r="O21" s="49">
-        <f>Model!X42</f>
+        <f>Model!X38</f>
         <v>7.625008851355819E-2</v>
       </c>
       <c r="P21" s="49">
-        <f>Model!Y42</f>
+        <f>Model!Y38</f>
         <v>7.6388953210185129E-2</v>
       </c>
       <c r="Q21" s="49">
-        <f>Model!Z42</f>
+        <f>Model!Z38</f>
         <v>7.6522731796776933E-2</v>
       </c>
       <c r="R21" s="49">
-        <f>Model!AA42</f>
+        <f>Model!AA38</f>
         <v>7.5656050964102217E-2</v>
       </c>
       <c r="S21" s="49">
-        <f>Model!AB42</f>
+        <f>Model!AB38</f>
         <v>5.5589431193111993E-2</v>
       </c>
       <c r="T21" s="49">
-        <f>Model!AC42</f>
+        <f>Model!AC38</f>
         <v>4.9833055314937091E-2</v>
       </c>
       <c r="U21" s="49">
-        <f>Model!AD42</f>
+        <f>Model!AD38</f>
         <v>3.9816274632307191E-2</v>
       </c>
       <c r="V21" s="49">
-        <f>Model!AE42</f>
+        <f>Model!AE38</f>
         <v>3.932139039549476E-2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -16719,7 +16461,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G24" s="47">
         <f>Model!P23</f>
@@ -16788,7 +16530,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G25" s="27">
         <f>G24/G18</f>
@@ -16857,7 +16599,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M26" s="49">
         <f>M27-1%</f>
@@ -16902,7 +16644,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B27" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M27" s="49">
         <v>0.11</v>
@@ -16937,7 +16679,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M28" s="49">
         <f>M27+1%</f>
@@ -16982,7 +16724,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G30" s="47">
         <f>Model!P27</f>
@@ -17051,7 +16793,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ref="G31:L31" si="14">G30/G24</f>
@@ -17120,7 +16862,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M32" s="49">
         <f>M33+2%</f>
@@ -17157,7 +16899,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M33" s="49">
         <v>0.26</v>
@@ -17192,7 +16934,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M34" s="49">
         <f>M33-2%</f>
@@ -17235,7 +16977,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -17311,27 +17053,27 @@
         <v>73</v>
       </c>
       <c r="G38" s="47">
-        <f>Model!P91</f>
+        <f>Model!P87</f>
         <v>819.65499999999997</v>
       </c>
       <c r="H38" s="47">
-        <f>Model!Q91</f>
+        <f>Model!Q87</f>
         <v>867.303</v>
       </c>
       <c r="I38" s="47">
-        <f>Model!R91</f>
+        <f>Model!R87</f>
         <v>870.75800000000004</v>
       </c>
       <c r="J38" s="47">
-        <f>Model!S91</f>
+        <f>Model!S87</f>
         <v>868</v>
       </c>
       <c r="K38" s="47">
-        <f>Model!T91</f>
+        <f>Model!T87</f>
         <v>887</v>
       </c>
       <c r="L38" s="47">
-        <f>Model!U91</f>
+        <f>Model!U87</f>
         <v>964</v>
       </c>
       <c r="M38" s="47">
@@ -17377,7 +17119,7 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G39" s="54">
         <f t="shared" ref="G39:K39" si="20">G38/G18</f>
@@ -17446,7 +17188,7 @@
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M40" s="49">
         <f>M41-0.2%</f>
@@ -17491,7 +17233,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M41" s="49">
         <v>1.7999999999999999E-2</v>
@@ -17535,7 +17277,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M42" s="49">
         <f>M41+0.2%</f>
@@ -17583,27 +17325,27 @@
         <v>89</v>
       </c>
       <c r="G44" s="47">
-        <f>-Model!P110</f>
+        <f>-Model!P106</f>
         <v>1125.1389999999999</v>
       </c>
       <c r="H44" s="47">
-        <f>-Model!Q110</f>
+        <f>-Model!Q106</f>
         <v>1223.116</v>
       </c>
       <c r="I44" s="47">
-        <f>-Model!R110</f>
+        <f>-Model!R106</f>
         <v>568.02099999999996</v>
       </c>
       <c r="J44" s="47">
-        <f>-Model!S110</f>
+        <f>-Model!S106</f>
         <v>1045</v>
       </c>
       <c r="K44" s="47">
-        <f>-Model!T110</f>
+        <f>-Model!T106</f>
         <v>1457</v>
       </c>
       <c r="L44" s="47">
-        <f>-Model!U110</f>
+        <f>-Model!U106</f>
         <v>1722</v>
       </c>
       <c r="M44" s="47">
@@ -17649,7 +17391,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G45" s="54">
         <f t="shared" ref="G45:L45" si="28">G44/G18</f>
@@ -17718,7 +17460,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M46" s="49">
         <f>M47+0.5%</f>
@@ -17763,7 +17505,7 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M47" s="49">
         <v>3.2000000000000001E-2</v>
@@ -17807,7 +17549,7 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M48" s="49">
         <f>M47-0.5%</f>
@@ -17855,27 +17597,27 @@
         <v>71</v>
       </c>
       <c r="G50" s="24">
-        <f>Model!P108</f>
+        <f>Model!P104</f>
         <v>140.26800000000003</v>
       </c>
       <c r="H50" s="24">
-        <f>Model!Q108</f>
+        <f>Model!Q104</f>
         <v>-207.73399999999998</v>
       </c>
       <c r="I50" s="24">
-        <f>Model!R108</f>
+        <f>Model!R104</f>
         <v>3376.8049999999998</v>
       </c>
       <c r="J50" s="24">
-        <f>Model!S108</f>
+        <f>Model!S104</f>
         <v>-1490</v>
       </c>
       <c r="K50" s="24">
-        <f>Model!T108</f>
+        <f>Model!T104</f>
         <v>-728</v>
       </c>
       <c r="L50" s="24">
-        <f>Model!U108</f>
+        <f>Model!U104</f>
         <v>405</v>
       </c>
       <c r="M50" s="24">
@@ -17921,7 +17663,7 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G51" s="54">
         <f t="shared" ref="G51:K51" si="35">G50/G18</f>
@@ -17990,7 +17732,7 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M52" s="49">
         <f>M53-0.5%</f>
@@ -18026,7 +17768,7 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M53" s="49">
         <f>AVERAGE(J51:L51,G51:H51)</f>
@@ -18062,7 +17804,7 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M54" s="49">
         <f>M53+0.5%</f>
@@ -18107,7 +17849,7 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="56" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C56" s="56"/>
       <c r="D56" s="56"/>
@@ -18180,7 +17922,7 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
@@ -18224,52 +17966,52 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M58" s="47">
         <f ca="1">M56/(1+$D$9)^M57</f>
-        <v>3101.3300793574567</v>
+        <v>3101.1312023360447</v>
       </c>
       <c r="N58" s="47">
         <f ca="1">N56/(1+$D$9)^N57</f>
-        <v>3273.8526719563424</v>
+        <v>3273.4328048830971</v>
       </c>
       <c r="O58" s="47">
         <f t="shared" ref="O58:T58" ca="1" si="43">O56/(1+$D$9)^O57</f>
-        <v>3367.4859856192616</v>
+        <v>3366.8381932658285</v>
       </c>
       <c r="P58" s="47">
         <f t="shared" ca="1" si="43"/>
-        <v>3460.0969109539765</v>
+        <v>3459.2094625864738</v>
       </c>
       <c r="Q58" s="47">
         <f t="shared" ca="1" si="43"/>
-        <v>3551.7250486289408</v>
+        <v>3550.586398607602</v>
       </c>
       <c r="R58" s="47">
         <f t="shared" ca="1" si="43"/>
-        <v>3639.0395611915692</v>
+        <v>3637.639635386663</v>
       </c>
       <c r="S58" s="47">
         <f t="shared" ca="1" si="43"/>
-        <v>3655.3631629365486</v>
+        <v>3653.7226425253521</v>
       </c>
       <c r="T58" s="47">
         <f t="shared" ca="1" si="43"/>
-        <v>3648.3809129677525</v>
+        <v>3646.5096737751719</v>
       </c>
       <c r="U58" s="47">
         <f ca="1">U56/(1+$D$9)^U57</f>
-        <v>3971.9854892922244</v>
+        <v>3969.6936963284761</v>
       </c>
       <c r="V58" s="47">
         <f ca="1">V56/(1+$D$9)^V57</f>
-        <v>3824.5296163714465</v>
+        <v>3822.077792192847</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N59" s="47"/>
       <c r="O59" s="47"/>
@@ -18277,12 +18019,12 @@
       <c r="Q59" s="47"/>
       <c r="V59" s="47">
         <f ca="1">SUM(M58:V58)</f>
-        <v>35493.789439275519</v>
+        <v>35480.841501887553</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
@@ -18290,12 +18032,12 @@
       <c r="Q60" s="47"/>
       <c r="V60" s="47">
         <f ca="1">(V56*(1+D10))/(D9-D10)</f>
-        <v>150691.41335197011</v>
+        <v>150509.55104268811</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -18318,12 +18060,12 @@
       <c r="U61" s="58"/>
       <c r="V61" s="58">
         <f ca="1">V60/(1+D9)^V57</f>
-        <v>68235.129499362331</v>
+        <v>68109.088472402553</v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B62" s="51" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C62" s="51"/>
       <c r="D62" s="51"/>
@@ -18346,12 +18088,12 @@
       <c r="U62" s="52"/>
       <c r="V62" s="52">
         <f ca="1">V59+V61</f>
-        <v>103728.91893863786</v>
+        <v>103589.92997429011</v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N63" s="47"/>
       <c r="O63" s="47"/>
@@ -18359,12 +18101,12 @@
       <c r="Q63" s="47"/>
       <c r="V63" s="47">
         <f>Main!I6</f>
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -18387,12 +18129,12 @@
       <c r="U64" s="58"/>
       <c r="V64" s="58">
         <f>Main!I7</f>
-        <v>2867</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N65" s="47"/>
       <c r="O65" s="47"/>
@@ -18400,12 +18142,12 @@
       <c r="Q65" s="47"/>
       <c r="V65" s="47">
         <f ca="1">V62+V63-V64</f>
-        <v>105500.91893863786</v>
+        <v>105360.92997429011</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B66" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -18428,16 +18170,16 @@
       <c r="U66" s="58"/>
       <c r="V66" s="58">
         <f>Main!I4</f>
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V67" s="32">
         <f ca="1">V65/V66</f>
-        <v>93.529183456239238</v>
+        <v>93.570985767575579</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -18445,7 +18187,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
@@ -18469,247 +18211,247 @@
       <c r="V71" s="38"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C73" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
+      <c r="C73" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
     </row>
     <row r="74" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="61">
+      <c r="B74" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="59">
         <f ca="1">V67</f>
-        <v>93.529183456239238</v>
-      </c>
-      <c r="D74" s="62">
+        <v>93.570985767575579</v>
+      </c>
+      <c r="D74" s="60">
         <f t="shared" ref="D74:E74" si="44">E74-0.5%</f>
         <v>9.9999999999999985E-3</v>
       </c>
-      <c r="E74" s="62">
+      <c r="E74" s="60">
         <f t="shared" si="44"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F74" s="62">
+      <c r="F74" s="60">
         <f>G74-0.5%</f>
         <v>0.02</v>
       </c>
-      <c r="G74" s="62">
+      <c r="G74" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H74" s="62">
+      <c r="H74" s="60">
         <f>G74+0.5%</f>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="I74" s="62">
+      <c r="I74" s="60">
         <f t="shared" ref="I74:J74" si="45">H74+0.5%</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J74" s="62">
+      <c r="J74" s="60">
         <f t="shared" si="45"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="60"/>
-      <c r="C75" s="63">
+      <c r="B75" s="64"/>
+      <c r="C75" s="61">
         <f t="shared" ref="C75:C76" si="46">C76-1%</f>
         <v>4.8759739939255253E-2</v>
       </c>
       <c r="D75" s="33">
         <f t="dataTable" ref="D75:J81" dt2D="1" dtr="1" r1="D10" r2="D9" ca="1"/>
-        <v>160.60015832542621</v>
+        <v>160.88452805602199</v>
       </c>
       <c r="E75" s="33">
-        <v>179.24056604773867</v>
+        <v>179.5580448506654</v>
       </c>
       <c r="F75" s="33">
-        <v>204.36239806724018</v>
+        <v>204.72449824142711</v>
       </c>
       <c r="G75" s="33">
-        <v>240.05750743898906</v>
+        <v>240.4830092284011</v>
       </c>
       <c r="H75" s="33">
-        <v>294.78012438138171</v>
+        <v>295.30282442468786</v>
       </c>
       <c r="I75" s="33">
-        <v>389.27283667730222</v>
+        <v>389.96337457548566</v>
       </c>
       <c r="J75" s="33">
-        <v>591.63714442147091</v>
+        <v>592.68712158740607</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B76" s="60"/>
-      <c r="C76" s="63">
+      <c r="B76" s="64"/>
+      <c r="C76" s="61">
         <f t="shared" si="46"/>
         <v>5.8759739939255255E-2</v>
       </c>
       <c r="D76" s="33">
-        <v>124.95684073944437</v>
+        <v>125.17790084732971</v>
       </c>
       <c r="E76" s="33">
-        <v>135.45242304649608</v>
+        <v>135.69212539648987</v>
       </c>
       <c r="F76" s="33">
-        <v>148.65586209445996</v>
+        <v>148.91901637881958</v>
       </c>
       <c r="G76" s="33">
-        <v>165.77030255171232</v>
+        <v>166.0638554869729</v>
       </c>
       <c r="H76" s="33">
-        <v>188.83557583756482</v>
+        <v>189.17009728665462</v>
       </c>
       <c r="I76" s="33">
-        <v>221.60856197920694</v>
+        <v>222.00129477135474</v>
       </c>
       <c r="J76" s="33">
-        <v>271.85139911439279</v>
+        <v>272.33337318031533</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="60"/>
-      <c r="C77" s="63">
+      <c r="B77" s="64"/>
+      <c r="C77" s="61">
         <f>C78-1%</f>
         <v>6.8759739939255257E-2</v>
       </c>
       <c r="D77" s="33">
-        <v>101.61244978608866</v>
+        <v>101.79204561164121</v>
       </c>
       <c r="E77" s="33">
-        <v>108.1266578290673</v>
+        <v>108.31782418400347</v>
       </c>
       <c r="F77" s="33">
-        <v>115.97684675526929</v>
+        <v>116.18195660741009</v>
       </c>
       <c r="G77" s="33">
-        <v>125.62096520141337</v>
+        <v>125.84320492646029</v>
       </c>
       <c r="H77" s="33">
-        <v>137.75326299583443</v>
+        <v>137.99705209529415</v>
       </c>
       <c r="I77" s="33">
-        <v>153.47927857844076</v>
+        <v>153.75100021001882</v>
       </c>
       <c r="J77" s="33">
-        <v>174.67336015045521</v>
+        <v>174.98272668713452</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="60"/>
-      <c r="C78" s="63">
+      <c r="B78" s="64"/>
+      <c r="C78" s="61">
         <v>7.8759739939255252E-2</v>
       </c>
       <c r="D78" s="33">
-        <v>85.189499850370808</v>
+        <v>85.339925249749797</v>
       </c>
       <c r="E78" s="33">
-        <v>89.505844228839479</v>
+        <v>89.663936314503502</v>
       </c>
       <c r="F78" s="33">
-        <v>94.556763740372219</v>
+        <v>94.723827263889746</v>
       </c>
       <c r="G78" s="33">
-        <v>100.54721895599128</v>
+        <v>100.72492271967866</v>
       </c>
       <c r="H78" s="33">
-        <v>107.76624003826221</v>
+        <v>107.95676621950246</v>
       </c>
       <c r="I78" s="33">
-        <v>116.6349558153124</v>
+        <v>116.84123460006428</v>
       </c>
       <c r="J78" s="33">
-        <v>127.79179731016912</v>
+        <v>128.01789286489412</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B79" s="60"/>
-      <c r="C79" s="63">
+      <c r="B79" s="64"/>
+      <c r="C79" s="61">
         <f>C78+1%</f>
         <v>8.8759739939255247E-2</v>
       </c>
       <c r="D79" s="33">
-        <v>73.042501071730754</v>
+        <v>73.171350984824414</v>
       </c>
       <c r="E79" s="33">
-        <v>76.040333065134845</v>
+        <v>76.174507724220334</v>
       </c>
       <c r="F79" s="33">
-        <v>79.474151581474075</v>
+        <v>79.61442538534881</v>
       </c>
       <c r="G79" s="33">
-        <v>83.446526014071864</v>
+        <v>83.593855545180332</v>
       </c>
       <c r="H79" s="33">
-        <v>88.094937208694859</v>
+        <v>88.25052324281333</v>
       </c>
       <c r="I79" s="33">
-        <v>93.608012406506006</v>
+        <v>93.773390758915426</v>
       </c>
       <c r="J79" s="33">
-        <v>100.25174892545614</v>
+        <v>100.42892787559016</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="60"/>
-      <c r="C80" s="63">
+      <c r="B80" s="64"/>
+      <c r="C80" s="61">
         <f t="shared" ref="C80:C81" si="47">C79+1%</f>
         <v>9.8759739939255242E-2</v>
       </c>
       <c r="D80" s="33">
-        <v>63.718893745303447</v>
+        <v>63.831183077000262</v>
       </c>
       <c r="E80" s="33">
-        <v>65.876357144269036</v>
+        <v>65.992478560155831</v>
       </c>
       <c r="F80" s="33">
-        <v>68.307750269339564</v>
+        <v>68.428190323103934</v>
       </c>
       <c r="G80" s="33">
-        <v>71.068780284002273</v>
+        <v>71.194124476336214</v>
       </c>
       <c r="H80" s="33">
-        <v>74.231357776462588</v>
+        <v>74.362319335568216</v>
       </c>
       <c r="I80" s="33">
-        <v>77.889950073166673</v>
+        <v>78.027410020010663</v>
       </c>
       <c r="J80" s="33">
-        <v>82.171178259765156</v>
+        <v>82.316242519551594</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="60"/>
-      <c r="C81" s="63">
+      <c r="B81" s="64"/>
+      <c r="C81" s="61">
         <f t="shared" si="47"/>
         <v>0.10875973993925524</v>
       </c>
       <c r="D81" s="33">
-        <v>56.355027096058272</v>
+        <v>56.454236735660508</v>
       </c>
       <c r="E81" s="33">
-        <v>57.951590080077935</v>
+        <v>58.053635533150896</v>
       </c>
       <c r="F81" s="33">
-        <v>59.728027744342526</v>
+        <v>59.833228504101569</v>
       </c>
       <c r="G81" s="33">
-        <v>61.716552703237333</v>
+        <v>61.825285478909159</v>
       </c>
       <c r="H81" s="33">
-        <v>63.957557540865658</v>
+        <v>64.070270786941791</v>
       </c>
       <c r="I81" s="33">
-        <v>66.502387315983455</v>
+        <v>66.619620685994079</v>
       </c>
       <c r="J81" s="33">
-        <v>69.417321715895639</v>
+        <v>69.539732589280888</v>
       </c>
     </row>
   </sheetData>
